--- a/Outputs/1. Budget/Grid Search/Output Files/400000/Output_2_20.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/400000/Output_2_20.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1063404.76906285</v>
+        <v>987532.1046579226</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>431491.3829109176</v>
+        <v>431491.3829109172</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>12084479.76041391</v>
+        <v>12084479.76041389</v>
       </c>
     </row>
     <row r="9">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -676,13 +676,13 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>81.0053776549329</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -718,16 +718,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="Y2" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X2" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -743,13 +743,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>90.50278177497624</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -791,7 +791,7 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>225.9413820809748</v>
@@ -800,13 +800,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>128.9764887865587</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -840,10 +840,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>22.0339917726843</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -858,10 +858,10 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -873,7 +873,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -907,10 +907,10 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -919,7 +919,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -940,31 +940,31 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>62.4162677022923</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y5" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V5" t="n">
-        <v>90.38893773807641</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -974,16 +974,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>45.28887413297245</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -995,7 +995,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0.7465913262578567</v>
@@ -1043,7 +1043,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>125.7974037899211</v>
       </c>
     </row>
     <row r="7">
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1095,13 +1095,13 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>44.30348359856715</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1132,76 +1132,76 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>220.2131257424249</v>
+      </c>
+      <c r="H8" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y8" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="G8" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>210.4758895704059</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0</v>
-      </c>
-      <c r="T8" t="n">
-        <v>0</v>
-      </c>
-      <c r="U8" t="n">
-        <v>0</v>
-      </c>
-      <c r="V8" t="n">
-        <v>0</v>
-      </c>
-      <c r="W8" t="n">
-        <v>0</v>
-      </c>
-      <c r="X8" t="n">
-        <v>1.809496073036132</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1211,7 +1211,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>151.27808017072</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -1235,7 +1235,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1268,19 +1268,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>155.9328799502333</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1332,13 +1332,13 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>44.30348359856715</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1372,7 +1372,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -1381,13 +1381,13 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>309.6875444700216</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>331.0869178506238</v>
       </c>
       <c r="I11" t="n">
         <v>178.9002608012674</v>
@@ -1423,19 +1423,19 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>204.4048057552669</v>
+        <v>219.5105486125224</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1448,13 +1448,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>121.4780729135665</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
         <v>157.6450804554009</v>
@@ -1469,7 +1469,7 @@
         <v>108.0031680536329</v>
       </c>
       <c r="I12" t="n">
-        <v>74.3088181214066</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1499,13 +1499,13 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>107.8114831083866</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9125518617455</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1514,10 +1514,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -1530,16 +1530,16 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>118.1968891582759</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1548,10 +1548,10 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>126.4945255511306</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>67.38482253818421</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1572,10 +1572,10 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>55.39827731939939</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>160.7742744190617</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1615,7 +1615,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1627,7 +1627,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>109.7774096670609</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1663,10 +1663,10 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.2801305603485</v>
       </c>
       <c r="V14" t="n">
-        <v>301.7683884502709</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1675,7 +1675,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1685,13 +1685,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
         <v>157.6450804554009</v>
@@ -1700,7 +1700,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>117.8987407938294</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1733,10 +1733,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>72.94979525863039</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>163.5434392080944</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
         <v>198.3983972633722</v>
@@ -1751,7 +1751,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>73.47821226121094</v>
       </c>
       <c r="Y15" t="n">
         <v>205.6826957773044</v>
@@ -1779,16 +1779,16 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>39.30421660832085</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>158.9607559314126</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>144.4021047498582</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>67.38482253818421</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1815,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>191.4672464756814</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1833,7 +1833,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1843,10 +1843,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -1858,7 +1858,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>295.4861068837381</v>
+        <v>414.4837081715351</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1894,16 +1894,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>81.74632506403474</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>219.5105486125224</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -1922,28 +1922,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>166.5331836498673</v>
+        <v>99.49330307254115</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>136.905297830925</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>34.51536729335449</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1991,7 +1991,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -2010,7 +2010,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>160.7742744190617</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>217.6140207606494</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>31.66360464806477</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -2064,7 +2064,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>263.6179371812071</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -2092,13 +2092,13 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>414.4837081715351</v>
       </c>
       <c r="H20" t="n">
-        <v>258.4745598770034</v>
+        <v>331.0869178506238</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,16 +2131,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>190.3564384189606</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>198.888832542477</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -2165,10 +2165,10 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>9.251933869678378</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -2177,7 +2177,7 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>69.78556494391032</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>72.94979525863039</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>163.5434392080944</v>
@@ -2219,13 +2219,13 @@
         <v>225.9125518617455</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
         <v>205.6826957773044</v>
@@ -2247,10 +2247,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>43.82240604891444</v>
       </c>
       <c r="F22" t="n">
-        <v>42.85177345746877</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>217.6140207606494</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -2307,7 +2307,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2317,28 +2317,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>335.3138620892173</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>151.9313162448613</v>
+        <v>91.09033856935444</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,25 +2368,25 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S23" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U23" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2408,7 +2408,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933836</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
         <v>136.5310119231965</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2484,13 +2484,13 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>122.5935461816077</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2532,10 +2532,10 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>235.7412200973001</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -2544,7 +2544,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2560,10 +2560,10 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>359.3908175694769</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -2572,10 +2572,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H26" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2602,25 +2602,25 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>221.2933605147925</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2651,7 +2651,7 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H27" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553069</v>
       </c>
       <c r="I27" t="n">
         <v>61.42221998250818</v>
@@ -2727,10 +2727,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>49.20343734336398</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2757,16 +2757,16 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>94.63926978364034</v>
       </c>
       <c r="U28" t="n">
         <v>286.2818742419777</v>
@@ -2775,7 +2775,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2791,28 +2791,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>36.28779755549684</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H29" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2839,7 +2839,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>174.4157128089715</v>
@@ -2848,7 +2848,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U29" t="n">
-        <v>179.9070498704725</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -2857,7 +2857,7 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2885,7 +2885,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>136.5310119231965</v>
+        <v>136.5310119231963</v>
       </c>
       <c r="H30" t="n">
         <v>104.3883541553076</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>49.71123688229251</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S30" t="n">
         <v>156.5912426325231</v>
@@ -2952,7 +2952,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2961,7 +2961,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -2997,22 +2997,22 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>208.1110812604921</v>
       </c>
       <c r="T31" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>190.2713935802968</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3031,25 +3031,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>275.4805812731078</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3076,13 +3076,13 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>28.2953590024603</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -3091,10 +3091,10 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3119,7 +3119,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933836</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
         <v>136.5310119231965</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229296</v>
       </c>
       <c r="S33" t="n">
         <v>156.5912426325231</v>
@@ -3195,10 +3195,10 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3234,25 +3234,25 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>155.2114886365808</v>
+        <v>3.888834254466539</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3274,10 +3274,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>284.5626383213778</v>
       </c>
       <c r="F35" t="n">
-        <v>192.1063192642652</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>413.784170020795</v>
@@ -3286,7 +3286,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I35" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3313,16 +3313,16 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -3331,7 +3331,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3365,7 +3365,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I36" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>49.71123688229296</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S36" t="n">
         <v>156.5912426325231</v>
@@ -3432,13 +3432,13 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>113.4450031752937</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3468,25 +3468,25 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>128.7835007017901</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3505,13 +3505,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -3520,10 +3520,10 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>148.3902336977362</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S38" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -3565,10 +3565,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>91.82302868349886</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229296</v>
       </c>
       <c r="S39" t="n">
         <v>156.5912426325231</v>
@@ -3647,7 +3647,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034773</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
         <v>205.6826957773044</v>
@@ -3672,13 +3672,13 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>68.19029374363592</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3717,10 +3717,10 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>128.7835007017901</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3742,22 +3742,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>276.8320453490573</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>227.7827421321551</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H41" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>151.9313162448613</v>
@@ -3787,13 +3787,13 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -3805,7 +3805,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3824,7 +3824,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>147.445065564638</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
         <v>157.6450804554009</v>
@@ -3839,7 +3839,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I42" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250752</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3909,7 +3909,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>94.63926978364033</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3957,7 +3957,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>94.63926978364034</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -3982,16 +3982,16 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>140.6923282165435</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4024,25 +4024,25 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U44" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>254.3476487849472</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -4103,10 +4103,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229251</v>
       </c>
       <c r="S45" t="n">
-        <v>156.5912426325221</v>
+        <v>156.5912426325231</v>
       </c>
       <c r="T45" t="n">
         <v>196.8897623984489</v>
@@ -4137,19 +4137,19 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>30.60408762095414</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4179,7 +4179,7 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -4191,16 +4191,16 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>94.63926978364033</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>325.7766548071333</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C2" t="n">
-        <v>325.7766548071333</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D2" t="n">
-        <v>325.7766548071333</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E2" t="n">
-        <v>325.7766548071333</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F2" t="n">
-        <v>325.7766548071333</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G2" t="n">
-        <v>325.7766548071333</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H2" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I2" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J2" t="n">
         <v>19.28114311021272</v>
@@ -4354,28 +4354,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R2" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S2" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T2" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U2" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V2" t="n">
-        <v>569.2254314512334</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W2" t="n">
-        <v>569.2254314512334</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X2" t="n">
-        <v>325.7766548071333</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y2" t="n">
-        <v>325.7766548071333</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="3">
@@ -4385,16 +4385,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>168.215552771464</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="C3" t="n">
-        <v>168.215552771464</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="D3" t="n">
-        <v>19.28114311021272</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="E3" t="n">
-        <v>19.28114311021272</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="F3" t="n">
         <v>19.28114311021272</v>
@@ -4415,16 +4415,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L3" t="n">
-        <v>178.8501590306595</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M3" t="n">
-        <v>417.4543050195419</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N3" t="n">
-        <v>656.0584510084244</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O3" t="n">
-        <v>894.6625969973069</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P3" t="n">
         <v>894.6625969973069</v>
@@ -4439,22 +4439,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T3" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U3" t="n">
-        <v>533.6469426057913</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V3" t="n">
-        <v>298.4948343740486</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W3" t="n">
-        <v>298.4948343740486</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X3" t="n">
-        <v>298.4948343740486</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="Y3" t="n">
-        <v>168.215552771464</v>
+        <v>257.2326523711826</v>
       </c>
     </row>
     <row r="4">
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C4" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D4" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E4" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F4" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G4" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H4" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I4" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K4" t="n">
         <v>19.28114311021272</v>
@@ -4506,34 +4506,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q4" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R4" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S4" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T4" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U4" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V4" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W4" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X4" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y4" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="5">
@@ -4543,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>31.35113235729608</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C5" t="n">
-        <v>31.35113235729608</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D5" t="n">
-        <v>31.35113235729608</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E5" t="n">
-        <v>31.35113235729608</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F5" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G5" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H5" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I5" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J5" t="n">
         <v>19.28114311021272</v>
@@ -4588,31 +4588,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R5" t="n">
-        <v>802.5825927271064</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S5" t="n">
-        <v>591.4512093066566</v>
+        <v>749.627473042513</v>
       </c>
       <c r="T5" t="n">
-        <v>366.1018663125844</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U5" t="n">
-        <v>122.6530896684844</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V5" t="n">
-        <v>31.35113235729608</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W5" t="n">
-        <v>31.35113235729608</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X5" t="n">
-        <v>31.35113235729608</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y5" t="n">
-        <v>31.35113235729608</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>862.8876260635219</v>
+        <v>567.60420440717</v>
       </c>
       <c r="C6" t="n">
-        <v>817.1412885554689</v>
+        <v>567.60420440717</v>
       </c>
       <c r="D6" t="n">
-        <v>668.2068788942177</v>
+        <v>418.6697947459187</v>
       </c>
       <c r="E6" t="n">
-        <v>508.9694238887622</v>
+        <v>418.6697947459187</v>
       </c>
       <c r="F6" t="n">
-        <v>362.4348659156472</v>
+        <v>272.1352367728036</v>
       </c>
       <c r="G6" t="n">
-        <v>223.7040404982626</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="H6" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I6" t="n">
         <v>20.03527576299844</v>
@@ -4652,16 +4652,16 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>234.810827406191</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M6" t="n">
-        <v>473.4149733950735</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N6" t="n">
-        <v>712.019119383956</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O6" t="n">
-        <v>712.019119383956</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P6" t="n">
         <v>894.6625969973069</v>
@@ -4691,7 +4691,7 @@
         <v>862.8876260635219</v>
       </c>
       <c r="Y6" t="n">
-        <v>862.8876260635219</v>
+        <v>735.8195414272379</v>
       </c>
     </row>
     <row r="7">
@@ -4701,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H7" t="n">
         <v>19.28114311021272</v>
@@ -4743,34 +4743,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q7" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>718.7806050553886</v>
+        <v>485.167420504237</v>
       </c>
       <c r="C8" t="n">
-        <v>718.7806050553886</v>
+        <v>485.167420504237</v>
       </c>
       <c r="D8" t="n">
-        <v>718.7806050553886</v>
+        <v>485.167420504237</v>
       </c>
       <c r="E8" t="n">
-        <v>718.7806050553886</v>
+        <v>485.167420504237</v>
       </c>
       <c r="F8" t="n">
-        <v>475.3318284112885</v>
+        <v>485.167420504237</v>
       </c>
       <c r="G8" t="n">
-        <v>231.8830517671884</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H8" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I8" t="n">
         <v>19.28114311021272</v>
@@ -4825,31 +4825,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T8" t="n">
-        <v>964.0571555106362</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="U8" t="n">
-        <v>964.0571555106362</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="V8" t="n">
-        <v>964.0571555106362</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="W8" t="n">
-        <v>964.0571555106362</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="X8" t="n">
-        <v>962.2293816994886</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="Y8" t="n">
-        <v>962.2293816994886</v>
+        <v>485.167420504237</v>
       </c>
     </row>
     <row r="9">
@@ -4859,46 +4859,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J9" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L9" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M9" t="n">
-        <v>613.2059550252818</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N9" t="n">
-        <v>613.2059550252818</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O9" t="n">
-        <v>851.8101010141643</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P9" t="n">
         <v>964.0571555106362</v>
@@ -4916,19 +4916,19 @@
         <v>588.4532163200711</v>
       </c>
       <c r="U9" t="n">
-        <v>588.4532163200711</v>
+        <v>430.9452567743808</v>
       </c>
       <c r="V9" t="n">
-        <v>588.4532163200711</v>
+        <v>430.9452567743808</v>
       </c>
       <c r="W9" t="n">
-        <v>588.4532163200711</v>
+        <v>187.4964801302808</v>
       </c>
       <c r="X9" t="n">
-        <v>380.6017161145382</v>
+        <v>187.4964801302808</v>
       </c>
       <c r="Y9" t="n">
-        <v>172.8414173495843</v>
+        <v>187.4964801302808</v>
       </c>
     </row>
     <row r="10">
@@ -4980,19 +4980,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q10" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U10" t="n">
         <v>19.28114311021272</v>
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>587.4414292346667</v>
+        <v>1276.711748720878</v>
       </c>
       <c r="C11" t="n">
-        <v>218.4789122942549</v>
+        <v>1276.711748720878</v>
       </c>
       <c r="D11" t="n">
-        <v>218.4789122942549</v>
+        <v>1276.711748720878</v>
       </c>
       <c r="E11" t="n">
-        <v>218.4789122942549</v>
+        <v>1276.711748720878</v>
       </c>
       <c r="F11" t="n">
-        <v>218.4789122942549</v>
+        <v>865.7258439312704</v>
       </c>
       <c r="G11" t="n">
-        <v>218.4789122942549</v>
+        <v>552.9101424464001</v>
       </c>
       <c r="H11" t="n">
         <v>218.4789122942549</v>
       </c>
       <c r="I11" t="n">
-        <v>37.7715781515605</v>
+        <v>37.77157815156051</v>
       </c>
       <c r="J11" t="n">
-        <v>94.76073252434969</v>
+        <v>94.76073252434992</v>
       </c>
       <c r="K11" t="n">
-        <v>300.9175062625693</v>
+        <v>300.9175062625696</v>
       </c>
       <c r="L11" t="n">
-        <v>608.9498412559813</v>
+        <v>608.9498412559817</v>
       </c>
       <c r="M11" t="n">
-        <v>968.3017108859925</v>
+        <v>968.3017108859931</v>
       </c>
       <c r="N11" t="n">
-        <v>1318.836271911617</v>
+        <v>1318.836271911618</v>
       </c>
       <c r="O11" t="n">
         <v>1604.648480067583</v>
       </c>
       <c r="P11" t="n">
-        <v>1810.908204322028</v>
+        <v>1810.908204322029</v>
       </c>
       <c r="Q11" t="n">
-        <v>1888.578907578025</v>
+        <v>1888.578907578026</v>
       </c>
       <c r="R11" t="n">
-        <v>1888.578907578025</v>
+        <v>1888.578907578026</v>
       </c>
       <c r="S11" t="n">
-        <v>1888.578907578025</v>
+        <v>1888.578907578026</v>
       </c>
       <c r="T11" t="n">
-        <v>1682.109406815129</v>
+        <v>1666.85108069669</v>
       </c>
       <c r="U11" t="n">
-        <v>1682.109406815129</v>
+        <v>1666.85108069669</v>
       </c>
       <c r="V11" t="n">
-        <v>1351.046519471558</v>
+        <v>1666.85108069669</v>
       </c>
       <c r="W11" t="n">
-        <v>1351.046519471558</v>
+        <v>1666.85108069669</v>
       </c>
       <c r="X11" t="n">
-        <v>977.5807612104784</v>
+        <v>1666.85108069669</v>
       </c>
       <c r="Y11" t="n">
-        <v>587.4414292346667</v>
+        <v>1276.711748720878</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>963.1434455825015</v>
+        <v>914.3133188447902</v>
       </c>
       <c r="C12" t="n">
-        <v>788.6904163013745</v>
+        <v>739.8602895636632</v>
       </c>
       <c r="D12" t="n">
-        <v>665.9852921462568</v>
+        <v>590.9258799024119</v>
       </c>
       <c r="E12" t="n">
-        <v>506.7478371408014</v>
+        <v>431.6884248969563</v>
       </c>
       <c r="F12" t="n">
-        <v>360.2132791676863</v>
+        <v>285.1538669238413</v>
       </c>
       <c r="G12" t="n">
-        <v>221.9250995404893</v>
+        <v>146.8656872966443</v>
       </c>
       <c r="H12" t="n">
-        <v>112.8309903954056</v>
+        <v>37.77157815156051</v>
       </c>
       <c r="I12" t="n">
-        <v>37.7715781515605</v>
+        <v>37.77157815156051</v>
       </c>
       <c r="J12" t="n">
-        <v>78.02054839819854</v>
+        <v>37.77157815156051</v>
       </c>
       <c r="K12" t="n">
-        <v>273.4332924261729</v>
+        <v>233.1843221795349</v>
       </c>
       <c r="L12" t="n">
-        <v>597.5942384890416</v>
+        <v>557.3452682424038</v>
       </c>
       <c r="M12" t="n">
-        <v>1027.853994500662</v>
+        <v>987.6050242540247</v>
       </c>
       <c r="N12" t="n">
-        <v>1146.343769973333</v>
+        <v>1444.959489116869</v>
       </c>
       <c r="O12" t="n">
-        <v>1498.318075624452</v>
+        <v>1796.933794767988</v>
       </c>
       <c r="P12" t="n">
-        <v>1763.805418834995</v>
+        <v>1888.578907578026</v>
       </c>
       <c r="Q12" t="n">
-        <v>1888.578907578025</v>
+        <v>1888.578907578026</v>
       </c>
       <c r="R12" t="n">
-        <v>1888.578907578025</v>
+        <v>1888.578907578026</v>
       </c>
       <c r="S12" t="n">
-        <v>1888.578907578025</v>
+        <v>1779.678419589756</v>
       </c>
       <c r="T12" t="n">
-        <v>1888.578907578025</v>
+        <v>1779.678419589756</v>
       </c>
       <c r="U12" t="n">
-        <v>1660.384410747979</v>
+        <v>1779.678419589756</v>
       </c>
       <c r="V12" t="n">
-        <v>1425.232302516236</v>
+        <v>1544.526311358014</v>
       </c>
       <c r="W12" t="n">
-        <v>1170.994945788034</v>
+        <v>1290.288954629812</v>
       </c>
       <c r="X12" t="n">
-        <v>963.1434455825015</v>
+        <v>1290.288954629812</v>
       </c>
       <c r="Y12" t="n">
-        <v>963.1434455825015</v>
+        <v>1082.528655864858</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>233.6093034943028</v>
+        <v>451.9654163614355</v>
       </c>
       <c r="C13" t="n">
-        <v>233.6093034943028</v>
+        <v>332.5746192318639</v>
       </c>
       <c r="D13" t="n">
-        <v>233.6093034943028</v>
+        <v>332.5746192318639</v>
       </c>
       <c r="E13" t="n">
-        <v>233.6093034943028</v>
+        <v>184.6615256494709</v>
       </c>
       <c r="F13" t="n">
-        <v>233.6093034943028</v>
+        <v>37.77157815156051</v>
       </c>
       <c r="G13" t="n">
-        <v>233.6093034943028</v>
+        <v>37.77157815156051</v>
       </c>
       <c r="H13" t="n">
-        <v>233.6093034943028</v>
+        <v>37.77157815156051</v>
       </c>
       <c r="I13" t="n">
-        <v>105.8370554628577</v>
+        <v>37.77157815156051</v>
       </c>
       <c r="J13" t="n">
-        <v>37.7715781515605</v>
+        <v>37.77157815156051</v>
       </c>
       <c r="K13" t="n">
-        <v>57.98179126766708</v>
+        <v>57.98179126766713</v>
       </c>
       <c r="L13" t="n">
         <v>139.3703405264044</v>
       </c>
       <c r="M13" t="n">
-        <v>235.5722772975926</v>
+        <v>235.5722772975928</v>
       </c>
       <c r="N13" t="n">
-        <v>334.9213634561164</v>
+        <v>334.9213634561166</v>
       </c>
       <c r="O13" t="n">
-        <v>410.6700291245809</v>
+        <v>410.6700291245812</v>
       </c>
       <c r="P13" t="n">
-        <v>451.9654163614352</v>
+        <v>451.9654163614355</v>
       </c>
       <c r="Q13" t="n">
-        <v>396.007560483254</v>
+        <v>451.9654163614355</v>
       </c>
       <c r="R13" t="n">
-        <v>233.6093034943028</v>
+        <v>451.9654163614355</v>
       </c>
       <c r="S13" t="n">
-        <v>233.6093034943028</v>
+        <v>451.9654163614355</v>
       </c>
       <c r="T13" t="n">
-        <v>233.6093034943028</v>
+        <v>451.9654163614355</v>
       </c>
       <c r="U13" t="n">
-        <v>233.6093034943028</v>
+        <v>451.9654163614355</v>
       </c>
       <c r="V13" t="n">
-        <v>233.6093034943028</v>
+        <v>451.9654163614355</v>
       </c>
       <c r="W13" t="n">
-        <v>233.6093034943028</v>
+        <v>451.9654163614355</v>
       </c>
       <c r="X13" t="n">
-        <v>233.6093034943028</v>
+        <v>451.9654163614355</v>
       </c>
       <c r="Y13" t="n">
-        <v>233.6093034943028</v>
+        <v>451.9654163614355</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>807.0231815479185</v>
+        <v>1303.697706537133</v>
       </c>
       <c r="C14" t="n">
-        <v>807.0231815479185</v>
+        <v>1303.697706537133</v>
       </c>
       <c r="D14" t="n">
-        <v>448.7574829411681</v>
+        <v>945.432007930383</v>
       </c>
       <c r="E14" t="n">
-        <v>448.7574829411681</v>
+        <v>559.6437553321387</v>
       </c>
       <c r="F14" t="n">
-        <v>37.7715781515605</v>
+        <v>148.6578505425311</v>
       </c>
       <c r="G14" t="n">
-        <v>37.7715781515605</v>
+        <v>148.6578505425311</v>
       </c>
       <c r="H14" t="n">
-        <v>37.7715781515605</v>
+        <v>148.6578505425311</v>
       </c>
       <c r="I14" t="n">
-        <v>37.7715781515605</v>
+        <v>37.77157815156051</v>
       </c>
       <c r="J14" t="n">
-        <v>94.76073252434969</v>
+        <v>94.76073252434986</v>
       </c>
       <c r="K14" t="n">
-        <v>300.9175062625693</v>
+        <v>300.9175062625695</v>
       </c>
       <c r="L14" t="n">
-        <v>608.9498412559813</v>
+        <v>608.9498412559817</v>
       </c>
       <c r="M14" t="n">
-        <v>968.3017108859925</v>
+        <v>968.301710885993</v>
       </c>
       <c r="N14" t="n">
-        <v>1318.836271911617</v>
+        <v>1318.836271911618</v>
       </c>
       <c r="O14" t="n">
         <v>1604.648480067583</v>
       </c>
       <c r="P14" t="n">
-        <v>1810.908204322028</v>
+        <v>1810.908204322029</v>
       </c>
       <c r="Q14" t="n">
-        <v>1888.578907578025</v>
+        <v>1888.578907578026</v>
       </c>
       <c r="R14" t="n">
-        <v>1888.578907578025</v>
+        <v>1888.578907578026</v>
       </c>
       <c r="S14" t="n">
-        <v>1888.578907578025</v>
+        <v>1888.578907578026</v>
       </c>
       <c r="T14" t="n">
-        <v>1888.578907578025</v>
+        <v>1888.578907578026</v>
       </c>
       <c r="U14" t="n">
-        <v>1888.578907578025</v>
+        <v>1634.760593880704</v>
       </c>
       <c r="V14" t="n">
-        <v>1583.762353587852</v>
+        <v>1303.697706537133</v>
       </c>
       <c r="W14" t="n">
-        <v>1583.762353587852</v>
+        <v>1303.697706537133</v>
       </c>
       <c r="X14" t="n">
-        <v>1583.762353587852</v>
+        <v>1303.697706537133</v>
       </c>
       <c r="Y14" t="n">
-        <v>1193.62302161204</v>
+        <v>1303.697706537133</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>316.0986703225003</v>
+        <v>520.3964720993943</v>
       </c>
       <c r="C15" t="n">
-        <v>316.0986703225003</v>
+        <v>345.9434428182673</v>
       </c>
       <c r="D15" t="n">
-        <v>316.0986703225003</v>
+        <v>197.009033157016</v>
       </c>
       <c r="E15" t="n">
-        <v>156.8612153170448</v>
+        <v>37.77157815156051</v>
       </c>
       <c r="F15" t="n">
-        <v>156.8612153170448</v>
+        <v>37.77157815156051</v>
       </c>
       <c r="G15" t="n">
-        <v>37.7715781515605</v>
+        <v>37.77157815156051</v>
       </c>
       <c r="H15" t="n">
-        <v>37.7715781515605</v>
+        <v>37.77157815156051</v>
       </c>
       <c r="I15" t="n">
-        <v>37.7715781515605</v>
+        <v>37.77157815156051</v>
       </c>
       <c r="J15" t="n">
-        <v>37.7715781515605</v>
+        <v>78.02054839819859</v>
       </c>
       <c r="K15" t="n">
-        <v>233.1843221795348</v>
+        <v>273.433292426173</v>
       </c>
       <c r="L15" t="n">
-        <v>557.3452682424036</v>
+        <v>273.433292426173</v>
       </c>
       <c r="M15" t="n">
-        <v>987.6050242540243</v>
+        <v>703.6930484377938</v>
       </c>
       <c r="N15" t="n">
-        <v>1146.343769973333</v>
+        <v>1161.047513300638</v>
       </c>
       <c r="O15" t="n">
-        <v>1498.318075624452</v>
+        <v>1513.021818951757</v>
       </c>
       <c r="P15" t="n">
-        <v>1763.805418834995</v>
+        <v>1778.5091621623</v>
       </c>
       <c r="Q15" t="n">
-        <v>1888.578907578025</v>
+        <v>1888.578907578026</v>
       </c>
       <c r="R15" t="n">
-        <v>1814.89224570062</v>
+        <v>1888.578907578026</v>
       </c>
       <c r="S15" t="n">
-        <v>1649.696852561131</v>
+        <v>1888.578907578026</v>
       </c>
       <c r="T15" t="n">
-        <v>1449.294431082977</v>
+        <v>1688.176486099872</v>
       </c>
       <c r="U15" t="n">
-        <v>1221.099934252931</v>
+        <v>1459.981989269826</v>
       </c>
       <c r="V15" t="n">
-        <v>985.9478260211886</v>
+        <v>1224.829881038083</v>
       </c>
       <c r="W15" t="n">
-        <v>731.710469292987</v>
+        <v>970.5925243098818</v>
       </c>
       <c r="X15" t="n">
-        <v>523.8589690874542</v>
+        <v>896.3721078844162</v>
       </c>
       <c r="Y15" t="n">
-        <v>316.0986703225003</v>
+        <v>688.6118091194624</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>451.9654163614352</v>
+        <v>37.77157815156051</v>
       </c>
       <c r="C16" t="n">
-        <v>451.9654163614352</v>
+        <v>37.77157815156051</v>
       </c>
       <c r="D16" t="n">
-        <v>451.9654163614352</v>
+        <v>37.77157815156051</v>
       </c>
       <c r="E16" t="n">
-        <v>451.9654163614352</v>
+        <v>37.77157815156051</v>
       </c>
       <c r="F16" t="n">
-        <v>451.9654163614352</v>
+        <v>37.77157815156051</v>
       </c>
       <c r="G16" t="n">
-        <v>412.2641874641414</v>
+        <v>37.77157815156051</v>
       </c>
       <c r="H16" t="n">
-        <v>251.6977673314014</v>
+        <v>37.77157815156051</v>
       </c>
       <c r="I16" t="n">
-        <v>105.8370554628577</v>
+        <v>37.77157815156051</v>
       </c>
       <c r="J16" t="n">
-        <v>37.7715781515605</v>
+        <v>37.77157815156051</v>
       </c>
       <c r="K16" t="n">
-        <v>57.98179126766708</v>
+        <v>57.98179126766713</v>
       </c>
       <c r="L16" t="n">
         <v>139.3703405264044</v>
       </c>
       <c r="M16" t="n">
-        <v>235.5722772975926</v>
+        <v>235.5722772975928</v>
       </c>
       <c r="N16" t="n">
-        <v>334.9213634561164</v>
+        <v>334.9213634561166</v>
       </c>
       <c r="O16" t="n">
-        <v>410.6700291245809</v>
+        <v>410.6700291245812</v>
       </c>
       <c r="P16" t="n">
-        <v>451.9654163614352</v>
+        <v>451.9654163614355</v>
       </c>
       <c r="Q16" t="n">
-        <v>451.9654163614352</v>
+        <v>451.9654163614355</v>
       </c>
       <c r="R16" t="n">
-        <v>451.9654163614352</v>
+        <v>451.9654163614355</v>
       </c>
       <c r="S16" t="n">
-        <v>451.9654163614352</v>
+        <v>258.5641572950906</v>
       </c>
       <c r="T16" t="n">
-        <v>451.9654163614352</v>
+        <v>258.5641572950906</v>
       </c>
       <c r="U16" t="n">
-        <v>451.9654163614352</v>
+        <v>258.5641572950906</v>
       </c>
       <c r="V16" t="n">
-        <v>451.9654163614352</v>
+        <v>258.5641572950906</v>
       </c>
       <c r="W16" t="n">
-        <v>451.9654163614352</v>
+        <v>258.5641572950906</v>
       </c>
       <c r="X16" t="n">
-        <v>451.9654163614352</v>
+        <v>258.5641572950906</v>
       </c>
       <c r="Y16" t="n">
-        <v>451.9654163614352</v>
+        <v>37.77157815156051</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1501.979067513903</v>
+        <v>1253.216147833892</v>
       </c>
       <c r="C17" t="n">
-        <v>1133.016550573491</v>
+        <v>1253.216147833892</v>
       </c>
       <c r="D17" t="n">
-        <v>1133.016550573491</v>
+        <v>1253.216147833892</v>
       </c>
       <c r="E17" t="n">
-        <v>747.228297975247</v>
+        <v>867.427895235648</v>
       </c>
       <c r="F17" t="n">
-        <v>336.2423931856394</v>
+        <v>456.4419904460404</v>
       </c>
       <c r="G17" t="n">
-        <v>37.7715781515605</v>
+        <v>37.77157815156051</v>
       </c>
       <c r="H17" t="n">
-        <v>37.7715781515605</v>
+        <v>37.77157815156051</v>
       </c>
       <c r="I17" t="n">
-        <v>37.7715781515605</v>
+        <v>37.77157815156051</v>
       </c>
       <c r="J17" t="n">
-        <v>94.76073252434958</v>
+        <v>94.76073252434992</v>
       </c>
       <c r="K17" t="n">
-        <v>300.9175062625692</v>
+        <v>300.9175062625696</v>
       </c>
       <c r="L17" t="n">
-        <v>608.9498412559811</v>
+        <v>608.9498412559817</v>
       </c>
       <c r="M17" t="n">
-        <v>968.3017108859924</v>
+        <v>968.3017108859931</v>
       </c>
       <c r="N17" t="n">
-        <v>1318.836271911617</v>
+        <v>1318.836271911618</v>
       </c>
       <c r="O17" t="n">
         <v>1604.648480067583</v>
       </c>
       <c r="P17" t="n">
-        <v>1810.908204322028</v>
+        <v>1810.908204322029</v>
       </c>
       <c r="Q17" t="n">
-        <v>1888.578907578025</v>
+        <v>1888.578907578026</v>
       </c>
       <c r="R17" t="n">
-        <v>1888.578907578025</v>
+        <v>1888.578907578026</v>
       </c>
       <c r="S17" t="n">
-        <v>1888.578907578025</v>
+        <v>1806.006862058799</v>
       </c>
       <c r="T17" t="n">
-        <v>1888.578907578025</v>
+        <v>1584.279035177463</v>
       </c>
       <c r="U17" t="n">
-        <v>1888.578907578025</v>
+        <v>1584.279035177463</v>
       </c>
       <c r="V17" t="n">
-        <v>1888.578907578025</v>
+        <v>1253.216147833892</v>
       </c>
       <c r="W17" t="n">
-        <v>1888.578907578025</v>
+        <v>1253.216147833892</v>
       </c>
       <c r="X17" t="n">
-        <v>1888.578907578025</v>
+        <v>1253.216147833892</v>
       </c>
       <c r="Y17" t="n">
-        <v>1888.578907578025</v>
+        <v>1253.216147833892</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>221.5699951798365</v>
+        <v>497.0473450329996</v>
       </c>
       <c r="C18" t="n">
-        <v>221.5699951798365</v>
+        <v>322.5943157518726</v>
       </c>
       <c r="D18" t="n">
-        <v>72.63558551858523</v>
+        <v>322.5943157518726</v>
       </c>
       <c r="E18" t="n">
-        <v>72.63558551858523</v>
+        <v>322.5943157518726</v>
       </c>
       <c r="F18" t="n">
-        <v>72.63558551858523</v>
+        <v>176.0597577787575</v>
       </c>
       <c r="G18" t="n">
-        <v>72.63558551858523</v>
+        <v>37.77157815156051</v>
       </c>
       <c r="H18" t="n">
-        <v>72.63558551858523</v>
+        <v>37.77157815156051</v>
       </c>
       <c r="I18" t="n">
-        <v>37.7715781515605</v>
+        <v>37.77157815156051</v>
       </c>
       <c r="J18" t="n">
-        <v>37.7715781515605</v>
+        <v>37.77157815156051</v>
       </c>
       <c r="K18" t="n">
-        <v>233.1843221795348</v>
+        <v>233.1843221795349</v>
       </c>
       <c r="L18" t="n">
-        <v>557.3452682424036</v>
+        <v>557.3452682424038</v>
       </c>
       <c r="M18" t="n">
-        <v>987.6050242540243</v>
+        <v>987.6050242540247</v>
       </c>
       <c r="N18" t="n">
-        <v>1444.959489116869</v>
+        <v>1271.117258716363</v>
       </c>
       <c r="O18" t="n">
-        <v>1498.318075624452</v>
+        <v>1623.091564367483</v>
       </c>
       <c r="P18" t="n">
-        <v>1763.805418834995</v>
+        <v>1888.578907578026</v>
       </c>
       <c r="Q18" t="n">
-        <v>1888.578907578025</v>
+        <v>1888.578907578026</v>
       </c>
       <c r="R18" t="n">
-        <v>1888.578907578025</v>
+        <v>1888.578907578026</v>
       </c>
       <c r="S18" t="n">
-        <v>1723.383514438535</v>
+        <v>1723.383514438536</v>
       </c>
       <c r="T18" t="n">
-        <v>1522.981092960382</v>
+        <v>1522.981092960383</v>
       </c>
       <c r="U18" t="n">
         <v>1294.786596130336</v>
       </c>
       <c r="V18" t="n">
-        <v>1059.634487898593</v>
+        <v>1059.634487898594</v>
       </c>
       <c r="W18" t="n">
-        <v>805.3971311703913</v>
+        <v>805.3971311703922</v>
       </c>
       <c r="X18" t="n">
-        <v>597.5456309648584</v>
+        <v>597.5456309648594</v>
       </c>
       <c r="Y18" t="n">
-        <v>389.7853321999045</v>
+        <v>597.5456309648594</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>37.7715781515605</v>
+        <v>185.6846717339536</v>
       </c>
       <c r="C19" t="n">
-        <v>37.7715781515605</v>
+        <v>185.6846717339536</v>
       </c>
       <c r="D19" t="n">
-        <v>37.7715781515605</v>
+        <v>185.6846717339536</v>
       </c>
       <c r="E19" t="n">
-        <v>37.7715781515605</v>
+        <v>37.77157815156051</v>
       </c>
       <c r="F19" t="n">
-        <v>37.7715781515605</v>
+        <v>37.77157815156051</v>
       </c>
       <c r="G19" t="n">
-        <v>37.7715781515605</v>
+        <v>37.77157815156051</v>
       </c>
       <c r="H19" t="n">
-        <v>37.7715781515605</v>
+        <v>37.77157815156051</v>
       </c>
       <c r="I19" t="n">
-        <v>37.7715781515605</v>
+        <v>37.77157815156051</v>
       </c>
       <c r="J19" t="n">
-        <v>37.7715781515605</v>
+        <v>37.77157815156051</v>
       </c>
       <c r="K19" t="n">
-        <v>57.98179126766708</v>
+        <v>57.98179126766713</v>
       </c>
       <c r="L19" t="n">
         <v>139.3703405264044</v>
       </c>
       <c r="M19" t="n">
-        <v>235.5722772975926</v>
+        <v>235.5722772975928</v>
       </c>
       <c r="N19" t="n">
-        <v>334.9213634561164</v>
+        <v>334.9213634561166</v>
       </c>
       <c r="O19" t="n">
-        <v>410.6700291245809</v>
+        <v>410.6700291245812</v>
       </c>
       <c r="P19" t="n">
-        <v>451.9654163614352</v>
+        <v>451.9654163614355</v>
       </c>
       <c r="Q19" t="n">
-        <v>451.9654163614352</v>
+        <v>451.9654163614355</v>
       </c>
       <c r="R19" t="n">
-        <v>289.567159372484</v>
+        <v>451.9654163614355</v>
       </c>
       <c r="S19" t="n">
-        <v>69.75501719000977</v>
+        <v>451.9654163614355</v>
       </c>
       <c r="T19" t="n">
-        <v>37.7715781515605</v>
+        <v>451.9654163614355</v>
       </c>
       <c r="U19" t="n">
-        <v>37.7715781515605</v>
+        <v>451.9654163614355</v>
       </c>
       <c r="V19" t="n">
-        <v>37.7715781515605</v>
+        <v>451.9654163614355</v>
       </c>
       <c r="W19" t="n">
-        <v>37.7715781515605</v>
+        <v>185.6846717339536</v>
       </c>
       <c r="X19" t="n">
-        <v>37.7715781515605</v>
+        <v>185.6846717339536</v>
       </c>
       <c r="Y19" t="n">
-        <v>37.7715781515605</v>
+        <v>185.6846717339536</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1128.513309252823</v>
+        <v>790.8732205981856</v>
       </c>
       <c r="C20" t="n">
-        <v>1128.513309252823</v>
+        <v>790.8732205981856</v>
       </c>
       <c r="D20" t="n">
-        <v>1128.513309252823</v>
+        <v>790.8732205981856</v>
       </c>
       <c r="E20" t="n">
-        <v>1128.513309252823</v>
+        <v>790.8732205981856</v>
       </c>
       <c r="F20" t="n">
-        <v>717.5274044632156</v>
+        <v>790.8732205981856</v>
       </c>
       <c r="G20" t="n">
-        <v>298.8569921687357</v>
+        <v>372.2028083037058</v>
       </c>
       <c r="H20" t="n">
-        <v>37.7715781515605</v>
+        <v>37.77157815156051</v>
       </c>
       <c r="I20" t="n">
-        <v>37.7715781515605</v>
+        <v>37.77157815156051</v>
       </c>
       <c r="J20" t="n">
-        <v>94.76073252434958</v>
+        <v>94.76073252434992</v>
       </c>
       <c r="K20" t="n">
-        <v>300.9175062625692</v>
+        <v>300.9175062625696</v>
       </c>
       <c r="L20" t="n">
-        <v>608.9498412559811</v>
+        <v>608.9498412559817</v>
       </c>
       <c r="M20" t="n">
-        <v>968.3017108859924</v>
+        <v>968.3017108859931</v>
       </c>
       <c r="N20" t="n">
-        <v>1318.836271911617</v>
+        <v>1318.836271911618</v>
       </c>
       <c r="O20" t="n">
         <v>1604.648480067583</v>
       </c>
       <c r="P20" t="n">
-        <v>1810.908204322028</v>
+        <v>1810.908204322029</v>
       </c>
       <c r="Q20" t="n">
-        <v>1888.578907578025</v>
+        <v>1888.578907578026</v>
       </c>
       <c r="R20" t="n">
-        <v>1888.578907578025</v>
+        <v>1888.578907578026</v>
       </c>
       <c r="S20" t="n">
-        <v>1888.578907578025</v>
+        <v>1696.299676851803</v>
       </c>
       <c r="T20" t="n">
-        <v>1888.578907578025</v>
+        <v>1696.299676851803</v>
       </c>
       <c r="U20" t="n">
-        <v>1888.578907578025</v>
+        <v>1495.401866202836</v>
       </c>
       <c r="V20" t="n">
-        <v>1888.578907578025</v>
+        <v>1164.338978859266</v>
       </c>
       <c r="W20" t="n">
-        <v>1888.578907578025</v>
+        <v>1164.338978859266</v>
       </c>
       <c r="X20" t="n">
-        <v>1515.113149316945</v>
+        <v>790.8732205981856</v>
       </c>
       <c r="Y20" t="n">
-        <v>1515.113149316945</v>
+        <v>790.8732205981856</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>590.8869417397077</v>
+        <v>221.5699951798374</v>
       </c>
       <c r="C21" t="n">
-        <v>416.4339124585807</v>
+        <v>47.11696589871039</v>
       </c>
       <c r="D21" t="n">
-        <v>267.4995027973295</v>
+        <v>47.11696589871039</v>
       </c>
       <c r="E21" t="n">
-        <v>108.262047791874</v>
+        <v>37.77157815156051</v>
       </c>
       <c r="F21" t="n">
-        <v>108.262047791874</v>
+        <v>37.77157815156051</v>
       </c>
       <c r="G21" t="n">
-        <v>108.262047791874</v>
+        <v>37.77157815156051</v>
       </c>
       <c r="H21" t="n">
-        <v>37.7715781515605</v>
+        <v>37.77157815156051</v>
       </c>
       <c r="I21" t="n">
-        <v>37.7715781515605</v>
+        <v>37.77157815156051</v>
       </c>
       <c r="J21" t="n">
-        <v>37.7715781515605</v>
+        <v>37.77157815156051</v>
       </c>
       <c r="K21" t="n">
-        <v>37.7715781515605</v>
+        <v>233.1843221795349</v>
       </c>
       <c r="L21" t="n">
-        <v>361.9325242144292</v>
+        <v>557.3452682424038</v>
       </c>
       <c r="M21" t="n">
-        <v>792.19228022605</v>
+        <v>987.6050242540247</v>
       </c>
       <c r="N21" t="n">
-        <v>1249.546745088894</v>
+        <v>1444.959489116869</v>
       </c>
       <c r="O21" t="n">
-        <v>1601.521050740013</v>
+        <v>1796.933794767988</v>
       </c>
       <c r="P21" t="n">
-        <v>1867.008393950556</v>
+        <v>1888.578907578026</v>
       </c>
       <c r="Q21" t="n">
-        <v>1888.578907578025</v>
+        <v>1888.578907578026</v>
       </c>
       <c r="R21" t="n">
-        <v>1814.89224570062</v>
+        <v>1888.578907578026</v>
       </c>
       <c r="S21" t="n">
-        <v>1649.696852561131</v>
+        <v>1723.383514438536</v>
       </c>
       <c r="T21" t="n">
-        <v>1449.294431082977</v>
+        <v>1522.981092960383</v>
       </c>
       <c r="U21" t="n">
-        <v>1221.099934252931</v>
+        <v>1294.786596130336</v>
       </c>
       <c r="V21" t="n">
-        <v>1221.099934252931</v>
+        <v>1059.634487898594</v>
       </c>
       <c r="W21" t="n">
-        <v>966.8625775247297</v>
+        <v>805.3971311703922</v>
       </c>
       <c r="X21" t="n">
-        <v>966.8625775247297</v>
+        <v>597.5456309648594</v>
       </c>
       <c r="Y21" t="n">
-        <v>759.1022787597758</v>
+        <v>389.7853321999054</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>231.1728372179051</v>
+        <v>232.1532741789613</v>
       </c>
       <c r="C22" t="n">
-        <v>231.1728372179051</v>
+        <v>232.1532741789613</v>
       </c>
       <c r="D22" t="n">
-        <v>81.05619780556935</v>
+        <v>82.03663476662561</v>
       </c>
       <c r="E22" t="n">
-        <v>81.05619780556935</v>
+        <v>37.77157815156051</v>
       </c>
       <c r="F22" t="n">
-        <v>37.7715781515605</v>
+        <v>37.77157815156051</v>
       </c>
       <c r="G22" t="n">
-        <v>37.7715781515605</v>
+        <v>37.77157815156051</v>
       </c>
       <c r="H22" t="n">
-        <v>37.7715781515605</v>
+        <v>37.77157815156051</v>
       </c>
       <c r="I22" t="n">
-        <v>37.7715781515605</v>
+        <v>37.77157815156051</v>
       </c>
       <c r="J22" t="n">
-        <v>37.7715781515605</v>
+        <v>37.77157815156051</v>
       </c>
       <c r="K22" t="n">
-        <v>57.98179126766708</v>
+        <v>57.98179126766713</v>
       </c>
       <c r="L22" t="n">
         <v>139.3703405264044</v>
       </c>
       <c r="M22" t="n">
-        <v>235.5722772975926</v>
+        <v>235.5722772975928</v>
       </c>
       <c r="N22" t="n">
-        <v>334.9213634561164</v>
+        <v>334.9213634561166</v>
       </c>
       <c r="O22" t="n">
-        <v>410.6700291245809</v>
+        <v>410.6700291245812</v>
       </c>
       <c r="P22" t="n">
-        <v>451.9654163614352</v>
+        <v>451.9654163614355</v>
       </c>
       <c r="Q22" t="n">
-        <v>451.9654163614352</v>
+        <v>451.9654163614355</v>
       </c>
       <c r="R22" t="n">
-        <v>451.9654163614352</v>
+        <v>451.9654163614355</v>
       </c>
       <c r="S22" t="n">
-        <v>451.9654163614352</v>
+        <v>232.1532741789613</v>
       </c>
       <c r="T22" t="n">
-        <v>451.9654163614352</v>
+        <v>232.1532741789613</v>
       </c>
       <c r="U22" t="n">
-        <v>451.9654163614352</v>
+        <v>232.1532741789613</v>
       </c>
       <c r="V22" t="n">
-        <v>451.9654163614352</v>
+        <v>232.1532741789613</v>
       </c>
       <c r="W22" t="n">
-        <v>451.9654163614352</v>
+        <v>232.1532741789613</v>
       </c>
       <c r="X22" t="n">
-        <v>451.9654163614352</v>
+        <v>232.1532741789613</v>
       </c>
       <c r="Y22" t="n">
-        <v>231.1728372179051</v>
+        <v>232.1532741789613</v>
       </c>
     </row>
     <row r="23">
@@ -5965,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>207.4089578252748</v>
+        <v>1718.957088916128</v>
       </c>
       <c r="C23" t="n">
-        <v>207.4089578252748</v>
+        <v>1718.957088916128</v>
       </c>
       <c r="D23" t="n">
-        <v>207.4089578252748</v>
+        <v>1360.691390309377</v>
       </c>
       <c r="E23" t="n">
-        <v>207.4089578252748</v>
+        <v>974.903137711133</v>
       </c>
       <c r="F23" t="n">
-        <v>207.4089578252748</v>
+        <v>563.9172329215255</v>
       </c>
       <c r="G23" t="n">
-        <v>207.4089578252748</v>
+        <v>145.9534248197124</v>
       </c>
       <c r="H23" t="n">
-        <v>207.4089578252748</v>
+        <v>145.9534248197124</v>
       </c>
       <c r="I23" t="n">
         <v>53.94298182036445</v>
@@ -5992,16 +5992,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K23" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L23" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M23" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N23" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O23" t="n">
         <v>2238.843319642689</v>
@@ -6016,25 +6016,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S23" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T23" t="n">
-        <v>2247.308246834948</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U23" t="n">
-        <v>1993.54646147304</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="V23" t="n">
-        <v>1662.48357412947</v>
+        <v>2092.422847177208</v>
       </c>
       <c r="W23" t="n">
-        <v>1309.714918859356</v>
+        <v>2092.422847177208</v>
       </c>
       <c r="X23" t="n">
-        <v>936.2491605982757</v>
+        <v>1718.957088916128</v>
       </c>
       <c r="Y23" t="n">
-        <v>546.109828622464</v>
+        <v>1718.957088916128</v>
       </c>
     </row>
     <row r="24">
@@ -6050,19 +6050,19 @@
         <v>814.044945935956</v>
       </c>
       <c r="D24" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E24" t="n">
-        <v>505.8730812692492</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F24" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G24" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H24" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I24" t="n">
         <v>53.94298182036445</v>
@@ -6086,7 +6086,7 @@
         <v>2307.072755435191</v>
       </c>
       <c r="P24" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q24" t="n">
         <v>2697.149091018222</v>
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>200.8329293182748</v>
+        <v>325.6879402326643</v>
       </c>
       <c r="C25" t="n">
-        <v>200.8329293182748</v>
+        <v>325.6879402326643</v>
       </c>
       <c r="D25" t="n">
-        <v>200.8329293182748</v>
+        <v>325.6879402326643</v>
       </c>
       <c r="E25" t="n">
-        <v>200.8329293182748</v>
+        <v>177.7748466502712</v>
       </c>
       <c r="F25" t="n">
-        <v>53.94298182036445</v>
+        <v>177.7748466502712</v>
       </c>
       <c r="G25" t="n">
         <v>53.94298182036445</v>
@@ -6180,19 +6180,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U25" t="n">
-        <v>438.9553738610022</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V25" t="n">
-        <v>200.8329293182748</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W25" t="n">
-        <v>200.8329293182748</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X25" t="n">
-        <v>200.8329293182748</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y25" t="n">
-        <v>200.8329293182748</v>
+        <v>507.3364050629041</v>
       </c>
     </row>
     <row r="26">
@@ -6202,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1726.574418528649</v>
+        <v>1241.158393318536</v>
       </c>
       <c r="C26" t="n">
-        <v>1726.574418528649</v>
+        <v>1241.158393318536</v>
       </c>
       <c r="D26" t="n">
-        <v>1726.574418528649</v>
+        <v>882.8926947117851</v>
       </c>
       <c r="E26" t="n">
-        <v>1363.553390680693</v>
+        <v>882.8926947117851</v>
       </c>
       <c r="F26" t="n">
-        <v>952.5674858910851</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G26" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H26" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I26" t="n">
         <v>53.94298182036444</v>
@@ -6250,28 +6250,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R26" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S26" t="n">
-        <v>2465.942913862885</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T26" t="n">
-        <v>2465.942913862885</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U26" t="n">
-        <v>2465.942913862885</v>
+        <v>2224.752638628376</v>
       </c>
       <c r="V26" t="n">
-        <v>2465.942913862885</v>
+        <v>2001.223991643737</v>
       </c>
       <c r="W26" t="n">
-        <v>2113.174258592771</v>
+        <v>2001.223991643737</v>
       </c>
       <c r="X26" t="n">
-        <v>2113.174258592771</v>
+        <v>1627.758233382657</v>
       </c>
       <c r="Y26" t="n">
-        <v>2113.174258592771</v>
+        <v>1627.758233382657</v>
       </c>
     </row>
     <row r="27">
@@ -6281,19 +6281,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>988.4979752170821</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C27" t="n">
-        <v>814.0449459359551</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D27" t="n">
-        <v>665.1105362747037</v>
+        <v>665.1105362747043</v>
       </c>
       <c r="E27" t="n">
-        <v>505.8730812692481</v>
+        <v>505.8730812692488</v>
       </c>
       <c r="F27" t="n">
-        <v>359.3385232961333</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G27" t="n">
         <v>221.4284102423999</v>
@@ -6305,25 +6305,25 @@
         <v>53.94298182036444</v>
       </c>
       <c r="J27" t="n">
-        <v>53.94298182036444</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K27" t="n">
-        <v>309.1903022614629</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L27" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M27" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N27" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517452</v>
       </c>
       <c r="O27" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537796</v>
       </c>
       <c r="P27" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152625</v>
       </c>
       <c r="Q27" t="n">
         <v>2697.149091018222</v>
@@ -6332,16 +6332,16 @@
         <v>2646.935720430047</v>
       </c>
       <c r="S27" t="n">
-        <v>2488.762748073962</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T27" t="n">
-        <v>2289.884200196741</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U27" t="n">
-        <v>2061.714576167581</v>
+        <v>2061.714576167582</v>
       </c>
       <c r="V27" t="n">
-        <v>1826.562467935838</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W27" t="n">
         <v>1572.325111207637</v>
@@ -6350,7 +6350,7 @@
         <v>1364.473611002104</v>
       </c>
       <c r="Y27" t="n">
-        <v>1156.71331223715</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="28">
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>261.391796148808</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C28" t="n">
-        <v>261.391796148808</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D28" t="n">
-        <v>261.391796148808</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E28" t="n">
-        <v>261.391796148808</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F28" t="n">
-        <v>261.391796148808</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G28" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H28" t="n">
         <v>53.94298182036444</v>
@@ -6405,31 +6405,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q28" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R28" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S28" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T28" t="n">
-        <v>550.5654064942401</v>
+        <v>632.5337622027571</v>
       </c>
       <c r="U28" t="n">
-        <v>261.391796148808</v>
+        <v>343.360151857325</v>
       </c>
       <c r="V28" t="n">
-        <v>261.391796148808</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W28" t="n">
-        <v>261.391796148808</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="X28" t="n">
-        <v>261.391796148808</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="Y28" t="n">
-        <v>261.391796148808</v>
+        <v>53.94298182036444</v>
       </c>
     </row>
     <row r="29">
@@ -6439,43 +6439,43 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2065.583954036491</v>
+        <v>1288.509552617345</v>
       </c>
       <c r="C29" t="n">
-        <v>1696.62143709608</v>
+        <v>919.5470356769335</v>
       </c>
       <c r="D29" t="n">
-        <v>1338.355738489329</v>
+        <v>919.5470356769335</v>
       </c>
       <c r="E29" t="n">
-        <v>952.5674858910851</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F29" t="n">
-        <v>952.5674858910851</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G29" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H29" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I29" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J29" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K29" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L29" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M29" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N29" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O29" t="n">
         <v>2238.843319642689</v>
@@ -6487,28 +6487,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R29" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S29" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T29" t="n">
-        <v>2247.308246834948</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U29" t="n">
-        <v>2065.583954036491</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V29" t="n">
-        <v>2065.583954036491</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="W29" t="n">
-        <v>2065.583954036491</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="X29" t="n">
-        <v>2065.583954036491</v>
+        <v>1675.109392681467</v>
       </c>
       <c r="Y29" t="n">
-        <v>2065.583954036491</v>
+        <v>1675.109392681467</v>
       </c>
     </row>
     <row r="30">
@@ -6518,19 +6518,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C30" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D30" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E30" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F30" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G30" t="n">
         <v>221.4284102424006</v>
@@ -6539,46 +6539,46 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I30" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J30" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K30" t="n">
-        <v>309.1903022614629</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L30" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M30" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N30" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O30" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P30" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q30" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R30" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S30" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T30" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U30" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V30" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W30" t="n">
         <v>1572.325111207638</v>
@@ -6597,31 +6597,31 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>53.94298182036444</v>
+        <v>369.7691122461817</v>
       </c>
       <c r="C31" t="n">
-        <v>53.94298182036444</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="D31" t="n">
-        <v>53.94298182036444</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E31" t="n">
-        <v>53.94298182036444</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F31" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G31" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H31" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I31" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J31" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K31" t="n">
         <v>110.2451748866326</v>
@@ -6645,28 +6645,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R31" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S31" t="n">
-        <v>728.1289842064342</v>
+        <v>369.7691122461817</v>
       </c>
       <c r="T31" t="n">
-        <v>500.820796875036</v>
+        <v>369.7691122461817</v>
       </c>
       <c r="U31" t="n">
-        <v>500.820796875036</v>
+        <v>369.7691122461817</v>
       </c>
       <c r="V31" t="n">
-        <v>246.1363086691491</v>
+        <v>369.7691122461817</v>
       </c>
       <c r="W31" t="n">
-        <v>53.94298182036444</v>
+        <v>369.7691122461817</v>
       </c>
       <c r="X31" t="n">
-        <v>53.94298182036444</v>
+        <v>369.7691122461817</v>
       </c>
       <c r="Y31" t="n">
-        <v>53.94298182036444</v>
+        <v>369.7691122461817</v>
       </c>
     </row>
     <row r="32">
@@ -6676,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1320.425425970681</v>
+        <v>1546.944160717209</v>
       </c>
       <c r="C32" t="n">
-        <v>951.4629090302697</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="D32" t="n">
-        <v>593.1972104235191</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E32" t="n">
-        <v>207.4089578252748</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F32" t="n">
-        <v>207.4089578252748</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G32" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H32" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I32" t="n">
         <v>53.94298182036445</v>
@@ -6703,16 +6703,16 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K32" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L32" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M32" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N32" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O32" t="n">
         <v>2238.843319642689</v>
@@ -6724,28 +6724,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R32" t="n">
-        <v>2668.567920308667</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S32" t="n">
-        <v>2668.567920308667</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T32" t="n">
-        <v>2449.933253280729</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U32" t="n">
-        <v>2449.933253280729</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V32" t="n">
-        <v>2449.933253280729</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W32" t="n">
-        <v>2097.164598010615</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X32" t="n">
-        <v>2097.164598010615</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y32" t="n">
-        <v>1707.025266034803</v>
+        <v>1933.544000781331</v>
       </c>
     </row>
     <row r="33">
@@ -6755,16 +6755,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C33" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D33" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E33" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F33" t="n">
         <v>359.3385232961344</v>
@@ -6791,31 +6791,31 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N33" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O33" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P33" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q33" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R33" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S33" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T33" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U33" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V33" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W33" t="n">
         <v>1572.325111207638</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2022.963088632153</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="C34" t="n">
-        <v>2022.963088632153</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="D34" t="n">
-        <v>2022.963088632153</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E34" t="n">
-        <v>2022.963088632153</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K34" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L34" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M34" t="n">
-        <v>2351.737007977609</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N34" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O34" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P34" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q34" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R34" t="n">
-        <v>2697.149091018222</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S34" t="n">
-        <v>2697.149091018222</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T34" t="n">
-        <v>2697.149091018222</v>
+        <v>352.67413830922</v>
       </c>
       <c r="U34" t="n">
-        <v>2697.149091018222</v>
+        <v>352.67413830922</v>
       </c>
       <c r="V34" t="n">
-        <v>2540.369809567131</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="W34" t="n">
-        <v>2250.95263953017</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="X34" t="n">
-        <v>2022.963088632153</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="Y34" t="n">
-        <v>2022.963088632153</v>
+        <v>348.7460229006679</v>
       </c>
     </row>
     <row r="35">
@@ -6913,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1873.842488573869</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="C35" t="n">
-        <v>1504.879971633457</v>
+        <v>1855.790121687965</v>
       </c>
       <c r="D35" t="n">
-        <v>1146.614273026707</v>
+        <v>1497.524423081215</v>
       </c>
       <c r="E35" t="n">
-        <v>1146.614273026707</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F35" t="n">
-        <v>952.5674858910851</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G35" t="n">
-        <v>534.603677789272</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H35" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I35" t="n">
         <v>53.94298182036445</v>
@@ -6943,13 +6943,13 @@
         <v>463.9616490733127</v>
       </c>
       <c r="L35" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M35" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N35" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O35" t="n">
         <v>2238.843319642689</v>
@@ -6961,28 +6961,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R35" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S35" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T35" t="n">
-        <v>2247.308246834948</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U35" t="n">
-        <v>2247.308246834948</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="V35" t="n">
-        <v>2247.308246834948</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="W35" t="n">
-        <v>2247.308246834948</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="X35" t="n">
-        <v>1873.842488573869</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="Y35" t="n">
-        <v>1873.842488573869</v>
+        <v>2224.752638628377</v>
       </c>
     </row>
     <row r="36">
@@ -6992,25 +6992,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C36" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D36" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E36" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F36" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G36" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H36" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I36" t="n">
         <v>53.94298182036445</v>
@@ -7028,31 +7028,31 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N36" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O36" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P36" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q36" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R36" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S36" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T36" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U36" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V36" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W36" t="n">
         <v>1572.325111207638</v>
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>484.4236418782189</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C37" t="n">
-        <v>484.4236418782189</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D37" t="n">
-        <v>484.4236418782189</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E37" t="n">
-        <v>369.8327295799424</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F37" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G37" t="n">
         <v>53.94298182036445</v>
@@ -7116,31 +7116,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q37" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R37" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S37" t="n">
-        <v>484.4236418782189</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T37" t="n">
-        <v>484.4236418782189</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U37" t="n">
-        <v>484.4236418782189</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="V37" t="n">
-        <v>484.4236418782189</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W37" t="n">
-        <v>484.4236418782189</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X37" t="n">
-        <v>484.4236418782189</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y37" t="n">
-        <v>484.4236418782189</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="38">
@@ -7150,43 +7150,43 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>768.2839875620907</v>
+        <v>1577.945354755378</v>
       </c>
       <c r="C38" t="n">
-        <v>768.2839875620907</v>
+        <v>1208.982837814967</v>
       </c>
       <c r="D38" t="n">
-        <v>768.2839875620907</v>
+        <v>850.7171392082162</v>
       </c>
       <c r="E38" t="n">
-        <v>768.2839875620907</v>
+        <v>464.928886609972</v>
       </c>
       <c r="F38" t="n">
-        <v>357.2980827724832</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G38" t="n">
-        <v>357.2980827724832</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H38" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I38" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J38" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K38" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L38" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M38" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N38" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O38" t="n">
         <v>2238.843319642689</v>
@@ -7201,25 +7201,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S38" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T38" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U38" t="n">
-        <v>2212.181128500977</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V38" t="n">
-        <v>1881.118241157406</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="W38" t="n">
-        <v>1528.349585887292</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="X38" t="n">
-        <v>1154.883827626212</v>
+        <v>1964.5451948195</v>
       </c>
       <c r="Y38" t="n">
-        <v>1154.883827626212</v>
+        <v>1964.5451948195</v>
       </c>
     </row>
     <row r="39">
@@ -7253,19 +7253,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J39" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K39" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L39" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M39" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N39" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O39" t="n">
         <v>2188.831293537797</v>
@@ -7277,19 +7277,19 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R39" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S39" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T39" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U39" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V39" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W39" t="n">
         <v>1572.325111207638</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>438.7118141694736</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C40" t="n">
-        <v>438.7118141694736</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D40" t="n">
-        <v>438.7118141694736</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E40" t="n">
-        <v>438.7118141694736</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F40" t="n">
-        <v>291.8218666715633</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G40" t="n">
-        <v>122.8220664098957</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H40" t="n">
         <v>53.94298182036445</v>
@@ -7365,19 +7365,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U40" t="n">
-        <v>728.1289842064342</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="V40" t="n">
-        <v>728.1289842064342</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W40" t="n">
-        <v>438.7118141694736</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X40" t="n">
-        <v>438.7118141694736</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y40" t="n">
-        <v>438.7118141694736</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1491.915471247702</v>
+        <v>1701.775251950351</v>
       </c>
       <c r="C41" t="n">
-        <v>1122.95295430729</v>
+        <v>1701.775251950351</v>
       </c>
       <c r="D41" t="n">
-        <v>764.6872557005397</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E41" t="n">
-        <v>764.6872557005397</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F41" t="n">
-        <v>764.6872557005397</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G41" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H41" t="n">
         <v>207.4089578252748</v>
@@ -7435,28 +7435,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R41" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S41" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T41" t="n">
-        <v>2642.120401548715</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U41" t="n">
-        <v>2642.120401548715</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="V41" t="n">
-        <v>2642.120401548715</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="W41" t="n">
-        <v>2642.120401548715</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="X41" t="n">
-        <v>2268.654643287635</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="Y41" t="n">
-        <v>1878.515311311824</v>
+        <v>2088.375092014473</v>
       </c>
     </row>
     <row r="42">
@@ -7472,34 +7472,34 @@
         <v>814.0449459359555</v>
       </c>
       <c r="D42" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747043</v>
       </c>
       <c r="E42" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692488</v>
       </c>
       <c r="F42" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G42" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102423999</v>
       </c>
       <c r="H42" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673417</v>
       </c>
       <c r="I42" t="n">
         <v>53.94298182036444</v>
       </c>
       <c r="J42" t="n">
-        <v>53.94298182036444</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K42" t="n">
-        <v>266.2060027641985</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L42" t="n">
-        <v>670.8219208598704</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M42" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N42" t="n">
         <v>1748.695370517452</v>
@@ -7545,16 +7545,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>149.5382038240415</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C43" t="n">
-        <v>149.5382038240415</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D43" t="n">
-        <v>149.5382038240415</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E43" t="n">
-        <v>149.5382038240415</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F43" t="n">
         <v>53.94298182036444</v>
@@ -7605,16 +7605,16 @@
         <v>438.9553738610022</v>
       </c>
       <c r="V43" t="n">
-        <v>438.9553738610022</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W43" t="n">
-        <v>149.5382038240415</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="X43" t="n">
-        <v>149.5382038240415</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="Y43" t="n">
-        <v>149.5382038240415</v>
+        <v>53.94298182036444</v>
       </c>
     </row>
     <row r="44">
@@ -7624,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>554.3221432721084</v>
+        <v>1268.680947310029</v>
       </c>
       <c r="C44" t="n">
-        <v>554.3221432721084</v>
+        <v>1268.680947310029</v>
       </c>
       <c r="D44" t="n">
-        <v>196.0564446653579</v>
+        <v>1268.680947310029</v>
       </c>
       <c r="E44" t="n">
-        <v>53.94298182036444</v>
+        <v>882.8926947117851</v>
       </c>
       <c r="F44" t="n">
-        <v>53.94298182036444</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G44" t="n">
         <v>53.94298182036444</v>
@@ -7672,28 +7672,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R44" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S44" t="n">
-        <v>2642.120401548715</v>
+        <v>2520.971603332392</v>
       </c>
       <c r="T44" t="n">
-        <v>2642.120401548715</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U44" t="n">
-        <v>2388.358616186807</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="V44" t="n">
-        <v>2057.295728843236</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="W44" t="n">
-        <v>1704.527073573122</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="X44" t="n">
-        <v>1331.061315312042</v>
+        <v>2045.420119349963</v>
       </c>
       <c r="Y44" t="n">
-        <v>940.9219833362301</v>
+        <v>1655.280787374151</v>
       </c>
     </row>
     <row r="45">
@@ -7751,7 +7751,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R45" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S45" t="n">
         <v>2488.762748073964</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>698.7120650600561</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C46" t="n">
-        <v>529.7758821321493</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D46" t="n">
-        <v>379.6592427198135</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E46" t="n">
-        <v>231.7461491374204</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F46" t="n">
-        <v>84.85620163951003</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G46" t="n">
         <v>53.94298182036444</v>
@@ -7827,31 +7827,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q46" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R46" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S46" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T46" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U46" t="n">
-        <v>698.7120650600561</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V46" t="n">
-        <v>698.7120650600561</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="W46" t="n">
-        <v>698.7120650600561</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="X46" t="n">
-        <v>698.7120650600561</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="Y46" t="n">
-        <v>698.7120650600561</v>
+        <v>53.94298182036444</v>
       </c>
     </row>
   </sheetData>
@@ -8063,19 +8063,19 @@
         <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>299.7352039419416</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N3" t="n">
-        <v>372.3560009609923</v>
+        <v>357.7767872515269</v>
       </c>
       <c r="O3" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P3" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8300,7 +8300,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>229.6373335557741</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
         <v>383.1483227996774</v>
@@ -8309,10 +8309,10 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
-        <v>142.5962444444444</v>
+        <v>185.8815939223662</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8534,7 +8534,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8543,13 +8543,13 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
-        <v>383.6105333221035</v>
+        <v>382.6009056104135</v>
       </c>
       <c r="P9" t="n">
-        <v>247.3552705420797</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
         <v>139.9817740860215</v>
@@ -8768,7 +8768,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>85.4355098387542</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
@@ -8780,16 +8780,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>137.0548093029744</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>142.8645561141738</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>84.04346072268811</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9005,19 +9005,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>85.43550983875426</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>43.40504625005629</v>
       </c>
       <c r="M15" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>177.7103348046289</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
         <v>393.8623192767295</v>
@@ -9026,7 +9026,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>195.2250217486732</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9242,7 +9242,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>85.43550983875426</v>
+        <v>85.4355098387542</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
@@ -9254,16 +9254,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>303.7441618177903</v>
       </c>
       <c r="O18" t="n">
-        <v>92.23027973780489</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>84.04346072268811</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9479,10 +9479,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>85.43550983875426</v>
+        <v>85.4355098387542</v>
       </c>
       <c r="K21" t="n">
-        <v>67.07862688331159</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
@@ -9497,10 +9497,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>142.8645561141738</v>
       </c>
       <c r="Q21" t="n">
-        <v>105.8318583261915</v>
+        <v>84.04346072268811</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9734,10 +9734,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415596</v>
       </c>
       <c r="Q24" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9953,7 +9953,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
@@ -9965,7 +9965,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451751</v>
       </c>
       <c r="O27" t="n">
         <v>393.8623192767295</v>
@@ -9974,7 +9974,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>166.6588033951776</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10196,7 +10196,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>327.4218609627885</v>
       </c>
       <c r="M30" t="n">
         <v>465.7050637499999</v>
@@ -10211,7 +10211,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>166.6588033951776</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10439,7 +10439,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O33" t="n">
         <v>393.8623192767295</v>
@@ -10448,7 +10448,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10676,7 +10676,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
@@ -10685,7 +10685,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10901,7 +10901,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
@@ -10913,10 +10913,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>479.3423743435536</v>
+        <v>435.9238900028826</v>
       </c>
       <c r="O39" t="n">
-        <v>274.4264991783518</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
         <v>318.4627686399372</v>
@@ -11138,10 +11138,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>221.0467526719075</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
@@ -11150,7 +11150,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451752</v>
       </c>
       <c r="O42" t="n">
         <v>393.8623192767295</v>
@@ -22546,10 +22546,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -22564,13 +22564,13 @@
         <v>415.302737515135</v>
       </c>
       <c r="H2" t="n">
-        <v>258.4694244608343</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -22594,7 +22594,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
         <v>209.0200695862453</v>
@@ -22606,16 +22606,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>128.71681180081</v>
+        <v>157.445715035027</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="3">
@@ -22631,13 +22631,13 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>67.1422986804247</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>137.3435171632106</v>
@@ -22679,7 +22679,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -22688,13 +22688,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>76.70620699074561</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -22728,10 +22728,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>71.32518834398849</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22746,10 +22746,10 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
         <v>177.2933913771695</v>
@@ -22761,7 +22761,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U4" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -22795,10 +22795,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G5" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H5" t="n">
         <v>339.4748021157671</v>
@@ -22807,7 +22807,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22828,22 +22828,22 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>146.6038018839531</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
-        <v>237.3633207320585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -22852,7 +22852,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="6">
@@ -22862,16 +22862,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>127.4196248553433</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -22883,7 +22883,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -22931,7 +22931,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>79.88529198738324</v>
       </c>
     </row>
     <row r="7">
@@ -22959,7 +22959,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H7" t="n">
-        <v>162.2271725074396</v>
+        <v>29.04020492207155</v>
       </c>
       <c r="I7" t="n">
         <v>155.4504749272583</v>
@@ -22983,13 +22983,13 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>132.9899077786023</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
         <v>224.0165980369723</v>
@@ -23020,7 +23020,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -23032,16 +23032,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>174.288448637476</v>
+        <v>195.0896117727101</v>
       </c>
       <c r="H8" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
         <v>11.94928935461252</v>
@@ -23065,7 +23065,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>149.8691179411497</v>
@@ -23074,7 +23074,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.3456529078365</v>
@@ -23086,10 +23086,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>367.9216046054329</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="9">
@@ -23099,7 +23099,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>15.25510347914729</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>172.7084989883157</v>
@@ -23123,7 +23123,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23156,19 +23156,19 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>70.00850213074148</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -23220,13 +23220,13 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>132.9899077786023</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
         <v>224.0165980369723</v>
@@ -23235,7 +23235,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U10" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -23260,7 +23260,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -23269,13 +23269,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>414.4837081715351</v>
+        <v>104.7961637015134</v>
       </c>
       <c r="H11" t="n">
-        <v>331.0869178506238</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23305,25 +23305,25 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>98.42076593623702</v>
+        <v>98.42076593623696</v>
       </c>
       <c r="S11" t="n">
         <v>190.3564384189606</v>
       </c>
       <c r="T11" t="n">
-        <v>15.10574285725551</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>251.2801305603485</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23336,13 +23336,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>25.96699265107225</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -23357,7 +23357,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>74.30881812140657</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23384,16 +23384,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>72.94979525863039</v>
+        <v>72.94979525863036</v>
       </c>
       <c r="S12" t="n">
-        <v>163.5434392080944</v>
+        <v>55.73195609970774</v>
       </c>
       <c r="T12" t="n">
         <v>198.3983972633722</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>225.9125518617455</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -23402,10 +23402,10 @@
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -23418,16 +23418,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>49.04993194035198</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>167.623590991012</v>
@@ -23436,10 +23436,10 @@
         <v>158.9607559314126</v>
       </c>
       <c r="I13" t="n">
-        <v>17.90757919872759</v>
+        <v>144.4021047498582</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>67.38482253818418</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23460,10 +23460,10 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>55.39827731939936</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>160.7742744190617</v>
       </c>
       <c r="S13" t="n">
         <v>217.6140207606494</v>
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -23503,7 +23503,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23515,7 +23515,7 @@
         <v>331.0869178506238</v>
       </c>
       <c r="I14" t="n">
-        <v>178.9002608012674</v>
+        <v>69.12285113420651</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23542,7 +23542,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>98.42076593623702</v>
+        <v>98.42076593623698</v>
       </c>
       <c r="S14" t="n">
         <v>190.3564384189606</v>
@@ -23551,10 +23551,10 @@
         <v>219.5105486125224</v>
       </c>
       <c r="U14" t="n">
-        <v>251.2801305603485</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>25.98387001986396</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -23563,7 +23563,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23573,13 +23573,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -23588,13 +23588,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>19.00655703709563</v>
+        <v>136.905297830925</v>
       </c>
       <c r="H15" t="n">
         <v>108.0031680536329</v>
       </c>
       <c r="I15" t="n">
-        <v>74.3088181214066</v>
+        <v>74.30881812140659</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23621,10 +23621,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>72.94979525863036</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>163.5434392080944</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
@@ -23639,7 +23639,7 @@
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>132.2947729422665</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -23667,16 +23667,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>128.3193743826911</v>
+        <v>167.623590991012</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>158.9607559314126</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>144.4021047498582</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>67.3848225381842</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23697,13 +23697,13 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>55.39827731939939</v>
+        <v>55.39827731939937</v>
       </c>
       <c r="R16" t="n">
         <v>160.7742744190617</v>
       </c>
       <c r="S16" t="n">
-        <v>217.6140207606494</v>
+        <v>26.14677428496805</v>
       </c>
       <c r="T16" t="n">
         <v>226.3758391310088</v>
@@ -23721,7 +23721,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23731,10 +23731,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -23746,7 +23746,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>118.997601287797</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>331.0869178506238</v>
@@ -23779,19 +23779,19 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>98.42076593623702</v>
+        <v>98.42076593623696</v>
       </c>
       <c r="S17" t="n">
-        <v>190.3564384189606</v>
+        <v>108.6101133549259</v>
       </c>
       <c r="T17" t="n">
-        <v>219.5105486125224</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>251.2801305603485</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -23810,28 +23810,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>67.03988057732619</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>136.905297830925</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>108.0031680536329</v>
       </c>
       <c r="I18" t="n">
-        <v>39.79345082805212</v>
+        <v>74.30881812140657</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23858,7 +23858,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>72.94979525863039</v>
+        <v>72.94979525863036</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -23879,7 +23879,7 @@
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="19">
@@ -23898,7 +23898,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23913,7 +23913,7 @@
         <v>144.4021047498582</v>
       </c>
       <c r="J19" t="n">
-        <v>67.38482253818421</v>
+        <v>67.38482253818418</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23934,16 +23934,16 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>55.39827731939939</v>
+        <v>55.39827731939936</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>160.7742744190617</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>217.6140207606494</v>
       </c>
       <c r="T19" t="n">
-        <v>194.712234482944</v>
+        <v>226.3758391310088</v>
       </c>
       <c r="U19" t="n">
         <v>286.2989899909938</v>
@@ -23952,7 +23952,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>22.90506115538392</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -23968,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -23980,13 +23980,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>72.61235797362036</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>178.9002608012674</v>
@@ -24016,19 +24016,19 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>98.42076593623702</v>
+        <v>98.42076593623696</v>
       </c>
       <c r="S20" t="n">
-        <v>190.3564384189606</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>219.5105486125224</v>
       </c>
       <c r="U20" t="n">
-        <v>251.2801305603485</v>
+        <v>52.39129801787146</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -24053,10 +24053,10 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>148.3931465857226</v>
       </c>
       <c r="F21" t="n">
         <v>145.0692123933839</v>
@@ -24065,10 +24065,10 @@
         <v>136.905297830925</v>
       </c>
       <c r="H21" t="n">
-        <v>38.21760310972262</v>
+        <v>108.0031680536329</v>
       </c>
       <c r="I21" t="n">
-        <v>74.3088181214066</v>
+        <v>74.30881812140657</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24095,7 +24095,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>72.94979525863036</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -24107,13 +24107,13 @@
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -24135,10 +24135,10 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>102.6115565976547</v>
       </c>
       <c r="F22" t="n">
-        <v>102.5692745654625</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>167.623590991012</v>
@@ -24150,7 +24150,7 @@
         <v>144.4021047498582</v>
       </c>
       <c r="J22" t="n">
-        <v>67.38482253818421</v>
+        <v>67.38482253818418</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24171,13 +24171,13 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>55.39827731939939</v>
+        <v>55.39827731939936</v>
       </c>
       <c r="R22" t="n">
         <v>160.7742744190617</v>
       </c>
       <c r="S22" t="n">
-        <v>217.6140207606494</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>226.3758391310088</v>
@@ -24195,7 +24195,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24205,28 +24205,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>47.41997957426332</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>60.84097767550681</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24256,25 +24256,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24372,13 +24372,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>167.3098022590509</v>
+        <v>44.71625607744321</v>
       </c>
       <c r="H25" t="n">
         <v>156.1708888417951</v>
@@ -24420,10 +24420,10 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V25" t="n">
-        <v>16.39642322652793</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -24432,7 +24432,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24448,10 +24448,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>22.53955250278489</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -24460,10 +24460,10 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24490,25 +24490,25 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T26" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>106.4588979553424</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -24615,10 +24615,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>118.1063649156869</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I28" t="n">
         <v>134.9656217923382</v>
@@ -24645,16 +24645,16 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S28" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T28" t="n">
-        <v>225.0351054580843</v>
+        <v>130.3958356744439</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24663,7 +24663,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24679,28 +24679,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>345.642572516765</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24727,7 +24727,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -24736,7 +24736,7 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>71.31711763781678</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -24745,7 +24745,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -24806,7 +24806,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>8.029132914089132e-13</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -24840,7 +24840,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24849,7 +24849,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>167.3098022590509</v>
@@ -24885,22 +24885,22 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R31" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>212.1455389500189</v>
+        <v>4.034457689526789</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U31" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>96.25160475629423</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -24919,25 +24919,25 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>89.79231049789979</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24964,13 +24964,13 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>26.18304357235141</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S32" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U32" t="n">
         <v>251.2241675082893</v>
@@ -24979,10 +24979,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -25083,10 +25083,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>167.3098022590509</v>
@@ -25122,25 +25122,25 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R34" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T34" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V34" t="n">
-        <v>96.92615468724722</v>
+        <v>248.2488090693615</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25162,10 +25162,10 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>97.36773175088399</v>
       </c>
       <c r="F35" t="n">
-        <v>214.7697264774462</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -25174,7 +25174,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25201,16 +25201,16 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -25219,7 +25219,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -25320,13 +25320,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>32.98895947127548</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H37" t="n">
         <v>156.1708888417951</v>
@@ -25356,25 +25356,25 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R37" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T37" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2818742419777</v>
+        <v>157.4983735401876</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25393,13 +25393,13 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -25408,10 +25408,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H38" t="n">
-        <v>175.5325390666209</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25441,7 +25441,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T38" t="n">
         <v>216.4483203576578</v>
@@ -25453,10 +25453,10 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>277.9080719949702</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -25560,13 +25560,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H40" t="n">
-        <v>87.98059509815923</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I40" t="n">
         <v>134.9656217923382</v>
@@ -25605,10 +25605,10 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2818742419777</v>
+        <v>157.4983735401876</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25630,22 +25630,22 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>77.85099627162566</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>186.0014278886399</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25675,13 +25675,13 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S41" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T41" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>251.2241675082893</v>
@@ -25693,7 +25693,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25797,7 +25797,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>50.78177823929092</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>167.3098022590509</v>
@@ -25845,7 +25845,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>157.4983735401877</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25870,16 +25870,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>241.2380418557183</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>323.9227727643571</v>
@@ -25912,25 +25912,25 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S44" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>115.3834518935219</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -25991,10 +25991,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>8.100187187665142e-13</v>
       </c>
       <c r="S45" t="n">
-        <v>9.947598300641403e-13</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
@@ -26025,19 +26025,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>136.7057146380968</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H46" t="n">
         <v>156.1708888417951</v>
@@ -26067,7 +26067,7 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R46" t="n">
         <v>146.6651919801579</v>
@@ -26079,16 +26079,16 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>131.0703856053968</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>432136.8384716082</v>
+        <v>432136.8384716081</v>
       </c>
     </row>
     <row r="4">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>598002.3884833838</v>
+        <v>598002.388483384</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>598002.3884833837</v>
+        <v>598002.3884833839</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>598002.3884833839</v>
+        <v>598002.388483384</v>
       </c>
     </row>
     <row r="9">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>740597.3441099979</v>
+        <v>740597.3441099976</v>
       </c>
     </row>
     <row r="14">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>166160.6725313324</v>
+      </c>
+      <c r="C2" t="n">
         <v>166160.6725313323</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>166160.6725313324</v>
       </c>
-      <c r="D2" t="n">
-        <v>166160.6725313323</v>
-      </c>
       <c r="E2" t="n">
-        <v>232303.6060448229</v>
+        <v>232303.606044823</v>
       </c>
       <c r="F2" t="n">
         <v>232303.6060448229</v>
       </c>
       <c r="G2" t="n">
-        <v>232303.6060448228</v>
+        <v>232303.6060448229</v>
       </c>
       <c r="H2" t="n">
         <v>232303.6060448229</v>
       </c>
       <c r="I2" t="n">
+        <v>289152.6100157576</v>
+      </c>
+      <c r="J2" t="n">
         <v>289152.6100157574</v>
-      </c>
-      <c r="J2" t="n">
-        <v>289152.6100157576</v>
       </c>
       <c r="K2" t="n">
         <v>289152.6100157574</v>
       </c>
       <c r="L2" t="n">
-        <v>289152.6100157575</v>
+        <v>289152.6100157577</v>
       </c>
       <c r="M2" t="n">
-        <v>289152.6100157575</v>
+        <v>289152.6100157574</v>
       </c>
       <c r="N2" t="n">
-        <v>289152.6100157574</v>
+        <v>289152.6100157576</v>
       </c>
       <c r="O2" t="n">
         <v>289152.6100157574</v>
       </c>
       <c r="P2" t="n">
-        <v>289152.6100157574</v>
+        <v>289152.6100157576</v>
       </c>
     </row>
     <row r="3">
@@ -26374,19 +26374,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>232690.6085665889</v>
+        <v>232690.6085665891</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>3.32519718148824e-11</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>184739.8879912183</v>
+        <v>184739.8879912181</v>
       </c>
       <c r="J3" t="n">
         <v>63059.94259910619</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>57598.62967555038</v>
+        <v>57598.62967555039</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>16914.68964098084</v>
+        <v>16914.68964098083</v>
       </c>
       <c r="C4" t="n">
         <v>16914.68964098084</v>
@@ -26478,16 +26478,16 @@
         <v>48281.26876376167</v>
       </c>
       <c r="E5" t="n">
-        <v>33147.7907681928</v>
+        <v>33147.79076819282</v>
       </c>
       <c r="F5" t="n">
-        <v>33147.7907681928</v>
+        <v>33147.79076819282</v>
       </c>
       <c r="G5" t="n">
-        <v>33147.7907681928</v>
+        <v>33147.79076819282</v>
       </c>
       <c r="H5" t="n">
-        <v>33147.7907681928</v>
+        <v>33147.79076819282</v>
       </c>
       <c r="I5" t="n">
         <v>49231.47806340946</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>20195.28259504209</v>
+        <v>7977.271975001653</v>
       </c>
       <c r="C6" t="n">
-        <v>100964.7141265899</v>
+        <v>88746.70350654933</v>
       </c>
       <c r="D6" t="n">
-        <v>100964.7141265898</v>
+        <v>88746.70350654941</v>
       </c>
       <c r="E6" t="n">
-        <v>-51135.34718599257</v>
+        <v>-60046.21113035864</v>
       </c>
       <c r="F6" t="n">
-        <v>181555.2613805963</v>
+        <v>172644.3974362304</v>
       </c>
       <c r="G6" t="n">
-        <v>181555.2613805963</v>
+        <v>172644.3974362304</v>
       </c>
       <c r="H6" t="n">
-        <v>181555.2613805963</v>
+        <v>172644.3974362304</v>
       </c>
       <c r="I6" t="n">
-        <v>36952.3163914664</v>
+        <v>30883.90264564752</v>
       </c>
       <c r="J6" t="n">
-        <v>158632.2617835786</v>
+        <v>152563.8480377592</v>
       </c>
       <c r="K6" t="n">
-        <v>221692.2043826847</v>
+        <v>215623.7906368655</v>
       </c>
       <c r="L6" t="n">
-        <v>221692.2043826848</v>
+        <v>215623.7906368657</v>
       </c>
       <c r="M6" t="n">
-        <v>164093.5747071344</v>
+        <v>158025.1609613151</v>
       </c>
       <c r="N6" t="n">
-        <v>221692.2043826847</v>
+        <v>215623.7906368656</v>
       </c>
       <c r="O6" t="n">
-        <v>221692.2043826847</v>
+        <v>215623.7906368655</v>
       </c>
       <c r="P6" t="n">
-        <v>221692.2043826847</v>
+        <v>215623.7906368656</v>
       </c>
     </row>
   </sheetData>
@@ -26746,16 +26746,16 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>203.7335492204967</v>
+        <v>203.7335492204969</v>
       </c>
       <c r="F3" t="n">
-        <v>203.7335492204967</v>
+        <v>203.7335492204968</v>
       </c>
       <c r="G3" t="n">
-        <v>203.7335492204967</v>
+        <v>203.7335492204969</v>
       </c>
       <c r="H3" t="n">
-        <v>203.7335492204967</v>
+        <v>203.7335492204969</v>
       </c>
       <c r="I3" t="n">
         <v>377.7436642170866</v>
@@ -26798,16 +26798,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="E4" t="n">
-        <v>472.1447268945062</v>
+        <v>472.1447268945064</v>
       </c>
       <c r="F4" t="n">
-        <v>472.1447268945062</v>
+        <v>472.1447268945064</v>
       </c>
       <c r="G4" t="n">
-        <v>472.1447268945062</v>
+        <v>472.1447268945064</v>
       </c>
       <c r="H4" t="n">
-        <v>472.1447268945062</v>
+        <v>472.1447268945064</v>
       </c>
       <c r="I4" t="n">
         <v>674.2872727545556</v>
@@ -26816,7 +26816,7 @@
         <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="L4" t="n">
         <v>674.2872727545556</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>203.7335492204967</v>
+        <v>203.7335492204969</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>174.01011499659</v>
+        <v>174.0101149965898</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27020,19 +27020,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>231.1304380168471</v>
+        <v>231.1304380168473</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.213199256248332e-13</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>202.1425458600494</v>
+        <v>202.1425458600492</v>
       </c>
       <c r="J4" t="n">
         <v>241.0142888776589</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>231.1304380168471</v>
+        <v>231.1304380168472</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>231.1304380168471</v>
+        <v>231.1304380168473</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>1.213199256248332e-13</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.8190293435999859</v>
+        <v>0.8190293435999867</v>
       </c>
       <c r="H11" t="n">
-        <v>8.387884265143358</v>
+        <v>8.387884265143366</v>
       </c>
       <c r="I11" t="n">
-        <v>31.57562876913849</v>
+        <v>31.57562876913852</v>
       </c>
       <c r="J11" t="n">
-        <v>69.51409175136936</v>
+        <v>69.51409175136943</v>
       </c>
       <c r="K11" t="n">
-        <v>104.1836038659568</v>
+        <v>104.1836038659569</v>
       </c>
       <c r="L11" t="n">
-        <v>129.2489731401549</v>
+        <v>129.248973140155</v>
       </c>
       <c r="M11" t="n">
-        <v>143.8143862294011</v>
+        <v>143.8143862294013</v>
       </c>
       <c r="N11" t="n">
-        <v>146.1414533519046</v>
+        <v>146.1414533519047</v>
       </c>
       <c r="O11" t="n">
-        <v>137.9972303164822</v>
+        <v>137.9972303164824</v>
       </c>
       <c r="P11" t="n">
-        <v>117.7774433963576</v>
+        <v>117.7774433963577</v>
       </c>
       <c r="Q11" t="n">
-        <v>88.44595502868304</v>
+        <v>88.44595502868313</v>
       </c>
       <c r="R11" t="n">
-        <v>51.44835200491266</v>
+        <v>51.44835200491271</v>
       </c>
       <c r="S11" t="n">
-        <v>18.6636311672847</v>
+        <v>18.66363116728472</v>
       </c>
       <c r="T11" t="n">
-        <v>3.58530095160894</v>
+        <v>3.585300951608944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.06552234748799886</v>
+        <v>0.06552234748799893</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.4382193322855966</v>
+        <v>0.438219332285597</v>
       </c>
       <c r="H12" t="n">
-        <v>4.232276182863526</v>
+        <v>4.232276182863529</v>
       </c>
       <c r="I12" t="n">
-        <v>15.08781473000848</v>
+        <v>15.0878147300085</v>
       </c>
       <c r="J12" t="n">
-        <v>41.40211682791244</v>
+        <v>41.40211682791249</v>
       </c>
       <c r="K12" t="n">
-        <v>70.76281209104741</v>
+        <v>70.76281209104748</v>
       </c>
       <c r="L12" t="n">
-        <v>95.14933352981781</v>
+        <v>95.14933352981791</v>
       </c>
       <c r="M12" t="n">
-        <v>111.0347843251707</v>
+        <v>111.0347843251708</v>
       </c>
       <c r="N12" t="n">
-        <v>113.9735446719456</v>
+        <v>113.9735446719457</v>
       </c>
       <c r="O12" t="n">
-        <v>104.2635268355121</v>
+        <v>104.2635268355122</v>
       </c>
       <c r="P12" t="n">
-        <v>83.68067232039608</v>
+        <v>83.68067232039616</v>
       </c>
       <c r="Q12" t="n">
-        <v>55.93831336333335</v>
+        <v>55.93831336333341</v>
       </c>
       <c r="R12" t="n">
-        <v>27.20803889401275</v>
+        <v>27.20803889401278</v>
       </c>
       <c r="S12" t="n">
-        <v>8.139731895743422</v>
+        <v>8.139731895743431</v>
       </c>
       <c r="T12" t="n">
-        <v>1.7663314314494</v>
+        <v>1.766331431449401</v>
       </c>
       <c r="U12" t="n">
-        <v>0.02883021922931558</v>
+        <v>0.02883021922931561</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.3673883674467972</v>
+        <v>0.3673883674467975</v>
       </c>
       <c r="H13" t="n">
-        <v>3.266416576026981</v>
+        <v>3.266416576026984</v>
       </c>
       <c r="I13" t="n">
-        <v>11.04837017740005</v>
+        <v>11.04837017740006</v>
       </c>
       <c r="J13" t="n">
-        <v>25.97435757848856</v>
+        <v>25.97435757848859</v>
       </c>
       <c r="K13" t="n">
-        <v>42.68384850881879</v>
+        <v>42.68384850881883</v>
       </c>
       <c r="L13" t="n">
-        <v>54.62063055659021</v>
+        <v>54.62063055659026</v>
       </c>
       <c r="M13" t="n">
-        <v>57.58979654441021</v>
+        <v>57.58979654441027</v>
       </c>
       <c r="N13" t="n">
-        <v>56.22043990210856</v>
+        <v>56.22043990210862</v>
       </c>
       <c r="O13" t="n">
-        <v>51.92867579148005</v>
+        <v>51.9286757914801</v>
       </c>
       <c r="P13" t="n">
-        <v>44.43395309556534</v>
+        <v>44.43395309556539</v>
       </c>
       <c r="Q13" t="n">
-        <v>30.76376593229499</v>
+        <v>30.76376593229502</v>
       </c>
       <c r="R13" t="n">
-        <v>16.51911695810781</v>
+        <v>16.51911695810782</v>
       </c>
       <c r="S13" t="n">
-        <v>6.402577276322818</v>
+        <v>6.402577276322824</v>
       </c>
       <c r="T13" t="n">
-        <v>1.569750297272679</v>
+        <v>1.56975029727268</v>
       </c>
       <c r="U13" t="n">
-        <v>0.02003936549709805</v>
+        <v>0.02003936549709807</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.8190293435999859</v>
+        <v>0.8190293435999866</v>
       </c>
       <c r="H14" t="n">
-        <v>8.387884265143358</v>
+        <v>8.387884265143365</v>
       </c>
       <c r="I14" t="n">
-        <v>31.57562876913849</v>
+        <v>31.57562876913851</v>
       </c>
       <c r="J14" t="n">
-        <v>69.51409175136936</v>
+        <v>69.51409175136943</v>
       </c>
       <c r="K14" t="n">
-        <v>104.1836038659568</v>
+        <v>104.1836038659569</v>
       </c>
       <c r="L14" t="n">
-        <v>129.2489731401549</v>
+        <v>129.248973140155</v>
       </c>
       <c r="M14" t="n">
-        <v>143.8143862294011</v>
+        <v>143.8143862294013</v>
       </c>
       <c r="N14" t="n">
-        <v>146.1414533519046</v>
+        <v>146.1414533519047</v>
       </c>
       <c r="O14" t="n">
-        <v>137.9972303164822</v>
+        <v>137.9972303164824</v>
       </c>
       <c r="P14" t="n">
-        <v>117.7774433963576</v>
+        <v>117.7774433963577</v>
       </c>
       <c r="Q14" t="n">
-        <v>88.44595502868304</v>
+        <v>88.44595502868312</v>
       </c>
       <c r="R14" t="n">
-        <v>51.44835200491266</v>
+        <v>51.44835200491271</v>
       </c>
       <c r="S14" t="n">
-        <v>18.6636311672847</v>
+        <v>18.66363116728471</v>
       </c>
       <c r="T14" t="n">
-        <v>3.58530095160894</v>
+        <v>3.585300951608943</v>
       </c>
       <c r="U14" t="n">
-        <v>0.06552234748799886</v>
+        <v>0.06552234748799891</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.4382193322855966</v>
+        <v>0.438219332285597</v>
       </c>
       <c r="H15" t="n">
-        <v>4.232276182863526</v>
+        <v>4.232276182863529</v>
       </c>
       <c r="I15" t="n">
-        <v>15.08781473000848</v>
+        <v>15.08781473000849</v>
       </c>
       <c r="J15" t="n">
-        <v>41.40211682791244</v>
+        <v>41.40211682791248</v>
       </c>
       <c r="K15" t="n">
-        <v>70.76281209104741</v>
+        <v>70.76281209104748</v>
       </c>
       <c r="L15" t="n">
-        <v>95.14933352981781</v>
+        <v>95.14933352981789</v>
       </c>
       <c r="M15" t="n">
-        <v>111.0347843251707</v>
+        <v>111.0347843251708</v>
       </c>
       <c r="N15" t="n">
-        <v>113.9735446719456</v>
+        <v>113.9735446719457</v>
       </c>
       <c r="O15" t="n">
-        <v>104.2635268355121</v>
+        <v>104.2635268355122</v>
       </c>
       <c r="P15" t="n">
-        <v>83.68067232039608</v>
+        <v>83.68067232039616</v>
       </c>
       <c r="Q15" t="n">
-        <v>55.93831336333335</v>
+        <v>55.9383133633334</v>
       </c>
       <c r="R15" t="n">
-        <v>27.20803889401275</v>
+        <v>27.20803889401278</v>
       </c>
       <c r="S15" t="n">
-        <v>8.139731895743422</v>
+        <v>8.139731895743429</v>
       </c>
       <c r="T15" t="n">
-        <v>1.7663314314494</v>
+        <v>1.766331431449401</v>
       </c>
       <c r="U15" t="n">
-        <v>0.02883021922931558</v>
+        <v>0.0288302192293156</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.3673883674467972</v>
+        <v>0.3673883674467975</v>
       </c>
       <c r="H16" t="n">
-        <v>3.266416576026981</v>
+        <v>3.266416576026984</v>
       </c>
       <c r="I16" t="n">
-        <v>11.04837017740005</v>
+        <v>11.04837017740006</v>
       </c>
       <c r="J16" t="n">
-        <v>25.97435757848856</v>
+        <v>25.97435757848858</v>
       </c>
       <c r="K16" t="n">
-        <v>42.68384850881879</v>
+        <v>42.68384850881883</v>
       </c>
       <c r="L16" t="n">
-        <v>54.62063055659021</v>
+        <v>54.62063055659025</v>
       </c>
       <c r="M16" t="n">
-        <v>57.58979654441021</v>
+        <v>57.58979654441026</v>
       </c>
       <c r="N16" t="n">
-        <v>56.22043990210856</v>
+        <v>56.22043990210861</v>
       </c>
       <c r="O16" t="n">
-        <v>51.92867579148005</v>
+        <v>51.92867579148009</v>
       </c>
       <c r="P16" t="n">
-        <v>44.43395309556534</v>
+        <v>44.43395309556539</v>
       </c>
       <c r="Q16" t="n">
-        <v>30.76376593229499</v>
+        <v>30.76376593229502</v>
       </c>
       <c r="R16" t="n">
-        <v>16.51911695810781</v>
+        <v>16.51911695810782</v>
       </c>
       <c r="S16" t="n">
-        <v>6.402577276322818</v>
+        <v>6.402577276322823</v>
       </c>
       <c r="T16" t="n">
-        <v>1.569750297272679</v>
+        <v>1.56975029727268</v>
       </c>
       <c r="U16" t="n">
-        <v>0.02003936549709805</v>
+        <v>0.02003936549709807</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.8190293435999859</v>
+        <v>0.8190293435999867</v>
       </c>
       <c r="H17" t="n">
-        <v>8.387884265143358</v>
+        <v>8.387884265143366</v>
       </c>
       <c r="I17" t="n">
-        <v>31.57562876913849</v>
+        <v>31.57562876913852</v>
       </c>
       <c r="J17" t="n">
-        <v>69.51409175136936</v>
+        <v>69.51409175136943</v>
       </c>
       <c r="K17" t="n">
-        <v>104.1836038659568</v>
+        <v>104.1836038659569</v>
       </c>
       <c r="L17" t="n">
-        <v>129.2489731401549</v>
+        <v>129.248973140155</v>
       </c>
       <c r="M17" t="n">
-        <v>143.8143862294011</v>
+        <v>143.8143862294013</v>
       </c>
       <c r="N17" t="n">
-        <v>146.1414533519046</v>
+        <v>146.1414533519047</v>
       </c>
       <c r="O17" t="n">
-        <v>137.9972303164822</v>
+        <v>137.9972303164824</v>
       </c>
       <c r="P17" t="n">
-        <v>117.7774433963576</v>
+        <v>117.7774433963577</v>
       </c>
       <c r="Q17" t="n">
-        <v>88.44595502868304</v>
+        <v>88.44595502868313</v>
       </c>
       <c r="R17" t="n">
-        <v>51.44835200491266</v>
+        <v>51.44835200491271</v>
       </c>
       <c r="S17" t="n">
-        <v>18.6636311672847</v>
+        <v>18.66363116728472</v>
       </c>
       <c r="T17" t="n">
-        <v>3.58530095160894</v>
+        <v>3.585300951608944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.06552234748799886</v>
+        <v>0.06552234748799893</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.4382193322855966</v>
+        <v>0.438219332285597</v>
       </c>
       <c r="H18" t="n">
-        <v>4.232276182863526</v>
+        <v>4.232276182863529</v>
       </c>
       <c r="I18" t="n">
-        <v>15.08781473000848</v>
+        <v>15.0878147300085</v>
       </c>
       <c r="J18" t="n">
-        <v>41.40211682791244</v>
+        <v>41.40211682791249</v>
       </c>
       <c r="K18" t="n">
-        <v>70.76281209104741</v>
+        <v>70.76281209104748</v>
       </c>
       <c r="L18" t="n">
-        <v>95.14933352981781</v>
+        <v>95.14933352981791</v>
       </c>
       <c r="M18" t="n">
-        <v>111.0347843251707</v>
+        <v>111.0347843251708</v>
       </c>
       <c r="N18" t="n">
-        <v>113.9735446719456</v>
+        <v>113.9735446719457</v>
       </c>
       <c r="O18" t="n">
-        <v>104.2635268355121</v>
+        <v>104.2635268355122</v>
       </c>
       <c r="P18" t="n">
-        <v>83.68067232039608</v>
+        <v>83.68067232039616</v>
       </c>
       <c r="Q18" t="n">
-        <v>55.93831336333335</v>
+        <v>55.93831336333341</v>
       </c>
       <c r="R18" t="n">
-        <v>27.20803889401275</v>
+        <v>27.20803889401278</v>
       </c>
       <c r="S18" t="n">
-        <v>8.139731895743422</v>
+        <v>8.139731895743431</v>
       </c>
       <c r="T18" t="n">
-        <v>1.7663314314494</v>
+        <v>1.766331431449401</v>
       </c>
       <c r="U18" t="n">
-        <v>0.02883021922931558</v>
+        <v>0.02883021922931561</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.3673883674467972</v>
+        <v>0.3673883674467975</v>
       </c>
       <c r="H19" t="n">
-        <v>3.266416576026981</v>
+        <v>3.266416576026984</v>
       </c>
       <c r="I19" t="n">
-        <v>11.04837017740005</v>
+        <v>11.04837017740006</v>
       </c>
       <c r="J19" t="n">
-        <v>25.97435757848856</v>
+        <v>25.97435757848859</v>
       </c>
       <c r="K19" t="n">
-        <v>42.68384850881879</v>
+        <v>42.68384850881883</v>
       </c>
       <c r="L19" t="n">
-        <v>54.62063055659021</v>
+        <v>54.62063055659026</v>
       </c>
       <c r="M19" t="n">
-        <v>57.58979654441021</v>
+        <v>57.58979654441027</v>
       </c>
       <c r="N19" t="n">
-        <v>56.22043990210856</v>
+        <v>56.22043990210862</v>
       </c>
       <c r="O19" t="n">
-        <v>51.92867579148005</v>
+        <v>51.9286757914801</v>
       </c>
       <c r="P19" t="n">
-        <v>44.43395309556534</v>
+        <v>44.43395309556539</v>
       </c>
       <c r="Q19" t="n">
-        <v>30.76376593229499</v>
+        <v>30.76376593229502</v>
       </c>
       <c r="R19" t="n">
-        <v>16.51911695810781</v>
+        <v>16.51911695810782</v>
       </c>
       <c r="S19" t="n">
-        <v>6.402577276322818</v>
+        <v>6.402577276322824</v>
       </c>
       <c r="T19" t="n">
-        <v>1.569750297272679</v>
+        <v>1.56975029727268</v>
       </c>
       <c r="U19" t="n">
-        <v>0.02003936549709805</v>
+        <v>0.02003936549709807</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.8190293435999859</v>
+        <v>0.8190293435999867</v>
       </c>
       <c r="H20" t="n">
-        <v>8.387884265143358</v>
+        <v>8.387884265143366</v>
       </c>
       <c r="I20" t="n">
-        <v>31.57562876913849</v>
+        <v>31.57562876913852</v>
       </c>
       <c r="J20" t="n">
-        <v>69.51409175136936</v>
+        <v>69.51409175136943</v>
       </c>
       <c r="K20" t="n">
-        <v>104.1836038659568</v>
+        <v>104.1836038659569</v>
       </c>
       <c r="L20" t="n">
-        <v>129.2489731401549</v>
+        <v>129.248973140155</v>
       </c>
       <c r="M20" t="n">
-        <v>143.8143862294011</v>
+        <v>143.8143862294013</v>
       </c>
       <c r="N20" t="n">
-        <v>146.1414533519046</v>
+        <v>146.1414533519047</v>
       </c>
       <c r="O20" t="n">
-        <v>137.9972303164822</v>
+        <v>137.9972303164824</v>
       </c>
       <c r="P20" t="n">
-        <v>117.7774433963576</v>
+        <v>117.7774433963577</v>
       </c>
       <c r="Q20" t="n">
-        <v>88.44595502868304</v>
+        <v>88.44595502868313</v>
       </c>
       <c r="R20" t="n">
-        <v>51.44835200491266</v>
+        <v>51.44835200491271</v>
       </c>
       <c r="S20" t="n">
-        <v>18.6636311672847</v>
+        <v>18.66363116728472</v>
       </c>
       <c r="T20" t="n">
-        <v>3.58530095160894</v>
+        <v>3.585300951608944</v>
       </c>
       <c r="U20" t="n">
-        <v>0.06552234748799886</v>
+        <v>0.06552234748799893</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.4382193322855966</v>
+        <v>0.438219332285597</v>
       </c>
       <c r="H21" t="n">
-        <v>4.232276182863526</v>
+        <v>4.232276182863529</v>
       </c>
       <c r="I21" t="n">
-        <v>15.08781473000848</v>
+        <v>15.0878147300085</v>
       </c>
       <c r="J21" t="n">
-        <v>41.40211682791244</v>
+        <v>41.40211682791249</v>
       </c>
       <c r="K21" t="n">
-        <v>70.76281209104741</v>
+        <v>70.76281209104748</v>
       </c>
       <c r="L21" t="n">
-        <v>95.14933352981781</v>
+        <v>95.14933352981791</v>
       </c>
       <c r="M21" t="n">
-        <v>111.0347843251707</v>
+        <v>111.0347843251708</v>
       </c>
       <c r="N21" t="n">
-        <v>113.9735446719456</v>
+        <v>113.9735446719457</v>
       </c>
       <c r="O21" t="n">
-        <v>104.2635268355121</v>
+        <v>104.2635268355122</v>
       </c>
       <c r="P21" t="n">
-        <v>83.68067232039608</v>
+        <v>83.68067232039616</v>
       </c>
       <c r="Q21" t="n">
-        <v>55.93831336333335</v>
+        <v>55.93831336333341</v>
       </c>
       <c r="R21" t="n">
-        <v>27.20803889401275</v>
+        <v>27.20803889401278</v>
       </c>
       <c r="S21" t="n">
-        <v>8.139731895743422</v>
+        <v>8.139731895743431</v>
       </c>
       <c r="T21" t="n">
-        <v>1.7663314314494</v>
+        <v>1.766331431449401</v>
       </c>
       <c r="U21" t="n">
-        <v>0.02883021922931558</v>
+        <v>0.02883021922931561</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.3673883674467972</v>
+        <v>0.3673883674467975</v>
       </c>
       <c r="H22" t="n">
-        <v>3.266416576026981</v>
+        <v>3.266416576026984</v>
       </c>
       <c r="I22" t="n">
-        <v>11.04837017740005</v>
+        <v>11.04837017740006</v>
       </c>
       <c r="J22" t="n">
-        <v>25.97435757848856</v>
+        <v>25.97435757848859</v>
       </c>
       <c r="K22" t="n">
-        <v>42.68384850881879</v>
+        <v>42.68384850881883</v>
       </c>
       <c r="L22" t="n">
-        <v>54.62063055659021</v>
+        <v>54.62063055659026</v>
       </c>
       <c r="M22" t="n">
-        <v>57.58979654441021</v>
+        <v>57.58979654441027</v>
       </c>
       <c r="N22" t="n">
-        <v>56.22043990210856</v>
+        <v>56.22043990210862</v>
       </c>
       <c r="O22" t="n">
-        <v>51.92867579148005</v>
+        <v>51.9286757914801</v>
       </c>
       <c r="P22" t="n">
-        <v>44.43395309556534</v>
+        <v>44.43395309556539</v>
       </c>
       <c r="Q22" t="n">
-        <v>30.76376593229499</v>
+        <v>30.76376593229502</v>
       </c>
       <c r="R22" t="n">
-        <v>16.51911695810781</v>
+        <v>16.51911695810782</v>
       </c>
       <c r="S22" t="n">
-        <v>6.402577276322818</v>
+        <v>6.402577276322824</v>
       </c>
       <c r="T22" t="n">
-        <v>1.569750297272679</v>
+        <v>1.56975029727268</v>
       </c>
       <c r="U22" t="n">
-        <v>0.02003936549709805</v>
+        <v>0.02003936549709807</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -34783,19 +34783,19 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>161.1808241620674</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N3" t="n">
-        <v>241.0142888776591</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="O3" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
         <v>70.09551364982758</v>
@@ -35020,7 +35020,7 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
-        <v>91.0829537758999</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
         <v>241.0142888776591</v>
@@ -35029,10 +35029,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="P6" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>70.09551364982758</v>
@@ -35254,7 +35254,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>232.285965523585</v>
@@ -35263,13 +35263,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O9" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="P9" t="n">
-        <v>113.3808631277494</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35409,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>57.56480239675685</v>
+        <v>57.56480239675692</v>
       </c>
       <c r="K11" t="n">
-        <v>208.239165392141</v>
+        <v>208.2391653921411</v>
       </c>
       <c r="L11" t="n">
-        <v>311.1437727206181</v>
+        <v>311.1437727206182</v>
       </c>
       <c r="M11" t="n">
-        <v>362.9816864949609</v>
+        <v>362.981686494961</v>
       </c>
       <c r="N11" t="n">
-        <v>354.0753141672978</v>
+        <v>354.075314167298</v>
       </c>
       <c r="O11" t="n">
-        <v>288.6992001575409</v>
+        <v>288.699200157541</v>
       </c>
       <c r="P11" t="n">
-        <v>208.3431558125707</v>
+        <v>208.3431558125708</v>
       </c>
       <c r="Q11" t="n">
-        <v>78.45525581413824</v>
+        <v>78.45525581413833</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>40.65552550165459</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>197.386610129267</v>
+        <v>197.3866101292671</v>
       </c>
       <c r="L12" t="n">
-        <v>327.4352990534028</v>
+        <v>327.4352990534029</v>
       </c>
       <c r="M12" t="n">
-        <v>434.6058141531523</v>
+        <v>434.6058141531524</v>
       </c>
       <c r="N12" t="n">
-        <v>119.6866418915866</v>
+        <v>461.9742069321659</v>
       </c>
       <c r="O12" t="n">
-        <v>355.5296016677972</v>
+        <v>355.5296016677973</v>
       </c>
       <c r="P12" t="n">
-        <v>268.169033546003</v>
+        <v>92.57082102023969</v>
       </c>
       <c r="Q12" t="n">
-        <v>126.0338270131609</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35570,22 +35570,22 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>20.41435668293594</v>
+        <v>20.41435668293598</v>
       </c>
       <c r="L13" t="n">
-        <v>82.21065581690635</v>
+        <v>82.2106558169064</v>
       </c>
       <c r="M13" t="n">
-        <v>97.17367350625079</v>
+        <v>97.17367350625085</v>
       </c>
       <c r="N13" t="n">
-        <v>100.3526122813371</v>
+        <v>100.3526122813372</v>
       </c>
       <c r="O13" t="n">
-        <v>76.51380370551972</v>
+        <v>76.51380370551976</v>
       </c>
       <c r="P13" t="n">
-        <v>41.71251236045883</v>
+        <v>41.71251236045888</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35646,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>57.56480239675685</v>
+        <v>57.56480239675692</v>
       </c>
       <c r="K14" t="n">
-        <v>208.239165392141</v>
+        <v>208.2391653921411</v>
       </c>
       <c r="L14" t="n">
-        <v>311.1437727206181</v>
+        <v>311.1437727206182</v>
       </c>
       <c r="M14" t="n">
-        <v>362.9816864949609</v>
+        <v>362.981686494961</v>
       </c>
       <c r="N14" t="n">
-        <v>354.0753141672978</v>
+        <v>354.075314167298</v>
       </c>
       <c r="O14" t="n">
-        <v>288.6992001575409</v>
+        <v>288.699200157541</v>
       </c>
       <c r="P14" t="n">
-        <v>208.3431558125707</v>
+        <v>208.3431558125708</v>
       </c>
       <c r="Q14" t="n">
-        <v>78.45525581413824</v>
+        <v>78.45525581413831</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>40.65552550165462</v>
       </c>
       <c r="K15" t="n">
-        <v>197.386610129267</v>
+        <v>197.3866101292671</v>
       </c>
       <c r="L15" t="n">
-        <v>327.4352990534028</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>434.6058141531523</v>
       </c>
       <c r="N15" t="n">
-        <v>160.3421673932412</v>
+        <v>461.9742069321659</v>
       </c>
       <c r="O15" t="n">
         <v>355.5296016677972</v>
       </c>
       <c r="P15" t="n">
-        <v>268.169033546003</v>
+        <v>268.1690335460031</v>
       </c>
       <c r="Q15" t="n">
-        <v>126.0338270131609</v>
+        <v>111.1815610259851</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35807,22 +35807,22 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>20.41435668293594</v>
+        <v>20.41435668293597</v>
       </c>
       <c r="L16" t="n">
-        <v>82.21065581690635</v>
+        <v>82.21065581690638</v>
       </c>
       <c r="M16" t="n">
-        <v>97.17367350625079</v>
+        <v>97.17367350625085</v>
       </c>
       <c r="N16" t="n">
-        <v>100.3526122813371</v>
+        <v>100.3526122813372</v>
       </c>
       <c r="O16" t="n">
-        <v>76.51380370551972</v>
+        <v>76.51380370551976</v>
       </c>
       <c r="P16" t="n">
-        <v>41.71251236045883</v>
+        <v>41.71251236045887</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35883,28 +35883,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>57.56480239675685</v>
+        <v>57.56480239675692</v>
       </c>
       <c r="K17" t="n">
-        <v>208.239165392141</v>
+        <v>208.2391653921411</v>
       </c>
       <c r="L17" t="n">
-        <v>311.1437727206181</v>
+        <v>311.1437727206182</v>
       </c>
       <c r="M17" t="n">
-        <v>362.9816864949609</v>
+        <v>362.981686494961</v>
       </c>
       <c r="N17" t="n">
-        <v>354.0753141672978</v>
+        <v>354.075314167298</v>
       </c>
       <c r="O17" t="n">
-        <v>288.6992001575409</v>
+        <v>288.699200157541</v>
       </c>
       <c r="P17" t="n">
-        <v>208.3431558125707</v>
+        <v>208.3431558125708</v>
       </c>
       <c r="Q17" t="n">
-        <v>78.45525581413824</v>
+        <v>78.45525581413833</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35965,25 +35965,25 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>197.386610129267</v>
+        <v>197.3866101292671</v>
       </c>
       <c r="L18" t="n">
-        <v>327.4352990534028</v>
+        <v>327.4352990534029</v>
       </c>
       <c r="M18" t="n">
-        <v>434.6058141531523</v>
+        <v>434.6058141531524</v>
       </c>
       <c r="N18" t="n">
-        <v>461.9742069321658</v>
+        <v>286.3759944064026</v>
       </c>
       <c r="O18" t="n">
-        <v>53.89756212887255</v>
+        <v>355.5296016677973</v>
       </c>
       <c r="P18" t="n">
-        <v>268.169033546003</v>
+        <v>268.1690335460031</v>
       </c>
       <c r="Q18" t="n">
-        <v>126.0338270131609</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36044,22 +36044,22 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>20.41435668293594</v>
+        <v>20.41435668293598</v>
       </c>
       <c r="L19" t="n">
-        <v>82.21065581690635</v>
+        <v>82.2106558169064</v>
       </c>
       <c r="M19" t="n">
-        <v>97.17367350625079</v>
+        <v>97.17367350625085</v>
       </c>
       <c r="N19" t="n">
-        <v>100.3526122813371</v>
+        <v>100.3526122813372</v>
       </c>
       <c r="O19" t="n">
-        <v>76.51380370551972</v>
+        <v>76.51380370551976</v>
       </c>
       <c r="P19" t="n">
-        <v>41.71251236045883</v>
+        <v>41.71251236045888</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36120,28 +36120,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>57.56480239675685</v>
+        <v>57.56480239675692</v>
       </c>
       <c r="K20" t="n">
-        <v>208.239165392141</v>
+        <v>208.2391653921411</v>
       </c>
       <c r="L20" t="n">
-        <v>311.1437727206181</v>
+        <v>311.1437727206182</v>
       </c>
       <c r="M20" t="n">
-        <v>362.9816864949609</v>
+        <v>362.981686494961</v>
       </c>
       <c r="N20" t="n">
-        <v>354.0753141672978</v>
+        <v>354.075314167298</v>
       </c>
       <c r="O20" t="n">
-        <v>288.6992001575409</v>
+        <v>288.699200157541</v>
       </c>
       <c r="P20" t="n">
-        <v>208.3431558125707</v>
+        <v>208.3431558125708</v>
       </c>
       <c r="Q20" t="n">
-        <v>78.45525581413824</v>
+        <v>78.45525581413833</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36202,25 +36202,25 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>197.3866101292671</v>
       </c>
       <c r="L21" t="n">
-        <v>327.4352990534028</v>
+        <v>327.4352990534029</v>
       </c>
       <c r="M21" t="n">
-        <v>434.6058141531523</v>
+        <v>434.6058141531524</v>
       </c>
       <c r="N21" t="n">
-        <v>461.9742069321658</v>
+        <v>461.9742069321659</v>
       </c>
       <c r="O21" t="n">
-        <v>355.5296016677972</v>
+        <v>355.5296016677973</v>
       </c>
       <c r="P21" t="n">
-        <v>268.169033546003</v>
+        <v>92.57082102023969</v>
       </c>
       <c r="Q21" t="n">
-        <v>21.78839760350328</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36281,22 +36281,22 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>20.41435668293594</v>
+        <v>20.41435668293598</v>
       </c>
       <c r="L22" t="n">
-        <v>82.21065581690635</v>
+        <v>82.2106558169064</v>
       </c>
       <c r="M22" t="n">
-        <v>97.17367350625079</v>
+        <v>97.17367350625085</v>
       </c>
       <c r="N22" t="n">
-        <v>100.3526122813371</v>
+        <v>100.3526122813372</v>
       </c>
       <c r="O22" t="n">
-        <v>76.51380370551972</v>
+        <v>76.51380370551976</v>
       </c>
       <c r="P22" t="n">
-        <v>41.71251236045883</v>
+        <v>41.71251236045888</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36454,10 +36454,10 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P24" t="n">
-        <v>339.6412258735646</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q24" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36673,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K27" t="n">
         <v>257.8255762031298</v>
@@ -36685,7 +36685,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N27" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355119</v>
       </c>
       <c r="O27" t="n">
         <v>444.5817404245898</v>
@@ -36694,7 +36694,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q27" t="n">
-        <v>130.3926104730626</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36916,7 +36916,7 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L30" t="n">
-        <v>408.7029475713857</v>
+        <v>365.284463230715</v>
       </c>
       <c r="M30" t="n">
         <v>529.4413268262938</v>
@@ -36931,7 +36931,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q30" t="n">
-        <v>130.3926104730626</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37159,7 +37159,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N33" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O33" t="n">
         <v>444.5817404245898</v>
@@ -37168,7 +37168,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q33" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37396,7 +37396,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N36" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O36" t="n">
         <v>444.5817404245898</v>
@@ -37405,7 +37405,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q36" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37621,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>257.8255762031298</v>
@@ -37633,10 +37633,10 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N39" t="n">
-        <v>559.3197334338902</v>
+        <v>515.9012490932192</v>
       </c>
       <c r="O39" t="n">
-        <v>325.145920326212</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P39" t="n">
         <v>339.6412258735646</v>
@@ -37858,10 +37858,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K42" t="n">
-        <v>214.4070918624587</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L42" t="n">
         <v>408.7029475713857</v>
@@ -37870,7 +37870,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N42" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355119</v>
       </c>
       <c r="O42" t="n">
         <v>444.5817404245897</v>
